--- a/database/industries/siman/sekhouz/product/monthly.xlsx
+++ b/database/industries/siman/sekhouz/product/monthly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -4165,9 +4165,7 @@
       <c r="B29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>57</v>
-      </c>
+      <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
         <v>57</v>
@@ -7675,9 +7673,7 @@
       <c r="B55" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="17" t="s">
-        <v>57</v>
-      </c>
+      <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17" t="s">
         <v>57</v>
@@ -7891,9 +7887,7 @@
       <c r="B57" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="17" t="s">
-        <v>57</v>
-      </c>
+      <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17" t="s">
         <v>57</v>

--- a/database/industries/siman/sekhouz/product/monthly.xlsx
+++ b/database/industries/siman/sekhouz/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\sekhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF530ECB-4B67-4128-B229-9278A8E4EAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -291,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,7 +485,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -496,7 +497,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -543,6 +544,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -578,6 +596,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -729,17 +764,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -794,7 +829,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -851,7 +886,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -908,7 +943,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -963,7 +998,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1020,7 +1055,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1077,7 +1112,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1132,7 +1167,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1344,7 +1379,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1401,7 +1436,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1560,7 +1595,7 @@
         <v>206175</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1719,7 +1754,7 @@
         <v>157258</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1878,7 +1913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -2037,7 +2072,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2196,7 +2231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2355,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2514,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2673,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2832,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2991,7 +3026,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3150,7 +3185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3309,7 +3344,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3468,7 +3503,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>70</v>
       </c>
@@ -3627,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
@@ -3786,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>72</v>
       </c>
@@ -3945,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>73</v>
       </c>
@@ -4104,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>74</v>
       </c>
@@ -4161,7 +4196,7 @@
       <c r="BA28" s="15"/>
       <c r="BB28" s="15"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>75</v>
       </c>
@@ -4318,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>76</v>
       </c>
@@ -4475,7 +4510,7 @@
         <v>363433</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4530,7 +4565,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4585,7 +4620,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4640,7 +4675,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>77</v>
       </c>
@@ -4797,7 +4832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4852,7 +4887,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>77</v>
       </c>
@@ -4909,7 +4944,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>55</v>
       </c>
@@ -5068,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>58</v>
       </c>
@@ -5227,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>59</v>
       </c>
@@ -5386,7 +5421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>60</v>
       </c>
@@ -5545,7 +5580,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>61</v>
       </c>
@@ -5704,7 +5739,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>62</v>
       </c>
@@ -5863,7 +5898,7 @@
         <v>30011</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>63</v>
       </c>
@@ -6022,7 +6057,7 @@
         <v>13977</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>64</v>
       </c>
@@ -6181,7 +6216,7 @@
         <v>53208</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>65</v>
       </c>
@@ -6340,7 +6375,7 @@
         <v>29005</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>66</v>
       </c>
@@ -6499,7 +6534,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>67</v>
       </c>
@@ -6658,7 +6693,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>68</v>
       </c>
@@ -6817,7 +6852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>69</v>
       </c>
@@ -6976,7 +7011,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>70</v>
       </c>
@@ -7135,7 +7170,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>71</v>
       </c>
@@ -7294,7 +7329,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>72</v>
       </c>
@@ -7453,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>73</v>
       </c>
@@ -7612,7 +7647,7 @@
         <v>55156</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>74</v>
       </c>
@@ -7669,7 +7704,7 @@
       <c r="BA54" s="15"/>
       <c r="BB54" s="15"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>75</v>
       </c>
@@ -7826,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>78</v>
       </c>
@@ -7883,7 +7918,7 @@
       <c r="BA56" s="15"/>
       <c r="BB56" s="15"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>79</v>
       </c>
@@ -8040,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>76</v>
       </c>
@@ -8197,7 +8232,7 @@
         <v>216357</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -8252,7 +8287,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8307,7 +8342,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8362,7 +8397,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>80</v>
       </c>
@@ -8519,7 +8554,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -8574,7 +8609,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>80</v>
       </c>
@@ -8631,7 +8666,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>55</v>
       </c>
@@ -8790,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>58</v>
       </c>
@@ -8949,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>59</v>
       </c>
@@ -9108,7 +9143,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>60</v>
       </c>
@@ -9267,7 +9302,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>61</v>
       </c>
@@ -9426,7 +9461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>62</v>
       </c>
@@ -9585,7 +9620,7 @@
         <v>212260</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>63</v>
       </c>
@@ -9744,7 +9779,7 @@
         <v>82648</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>64</v>
       </c>
@@ -9903,7 +9938,7 @@
         <v>377322</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>65</v>
       </c>
@@ -10062,7 +10097,7 @@
         <v>175706</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>66</v>
       </c>
@@ -10221,7 +10256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>67</v>
       </c>
@@ -10380,7 +10415,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>68</v>
       </c>
@@ -10539,7 +10574,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>69</v>
       </c>
@@ -10698,7 +10733,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>70</v>
       </c>
@@ -10857,7 +10892,7 @@
         <v>247416</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>71</v>
       </c>
@@ -11016,7 +11051,7 @@
         <v>77890</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>72</v>
       </c>
@@ -11175,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>73</v>
       </c>
@@ -11334,7 +11369,7 @@
         <v>490493</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>82</v>
       </c>
@@ -11391,7 +11426,7 @@
       <c r="BA82" s="15"/>
       <c r="BB82" s="15"/>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="16" t="s">
         <v>75</v>
       </c>
@@ -11550,7 +11585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>83</v>
       </c>
@@ -11607,7 +11642,7 @@
       <c r="BA84" s="15"/>
       <c r="BB84" s="15"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
         <v>79</v>
       </c>
@@ -11766,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>84</v>
       </c>
@@ -11823,7 +11858,7 @@
       <c r="BA86" s="9"/>
       <c r="BB86" s="9"/>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>85</v>
       </c>
@@ -11982,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="18" t="s">
         <v>76</v>
       </c>
@@ -12139,7 +12174,7 @@
         <v>1663735</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -12194,7 +12229,7 @@
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -12249,7 +12284,7 @@
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12304,7 +12339,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>86</v>
       </c>
@@ -12461,7 +12496,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -12516,7 +12551,7 @@
       <c r="BA93" s="1"/>
       <c r="BB93" s="1"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>87</v>
       </c>
@@ -12573,7 +12608,7 @@
       <c r="BA94" s="9"/>
       <c r="BB94" s="9"/>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>55</v>
       </c>
@@ -12732,7 +12767,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>58</v>
       </c>
@@ -12891,7 +12926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>59</v>
       </c>
@@ -13050,7 +13085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>60</v>
       </c>
@@ -13209,7 +13244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>61</v>
       </c>
@@ -13368,7 +13403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>62</v>
       </c>
@@ -13527,7 +13562,7 @@
         <v>7072740</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>63</v>
       </c>
@@ -13686,7 +13721,7 @@
         <v>5913143</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>64</v>
       </c>
@@ -13845,7 +13880,7 @@
         <v>7091452</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>65</v>
       </c>
@@ -14004,7 +14039,7 @@
         <v>6057783</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>66</v>
       </c>
@@ -14163,7 +14198,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>67</v>
       </c>
@@ -14322,7 +14357,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>68</v>
       </c>
@@ -14481,7 +14516,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>69</v>
       </c>
@@ -14640,7 +14675,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>70</v>
       </c>
@@ -14799,7 +14834,7 @@
         <v>9163556</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>71</v>
       </c>
@@ -14958,7 +14993,7 @@
         <v>9736250</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>73</v>
       </c>

--- a/database/industries/siman/sekhouz/product/monthly.xlsx
+++ b/database/industries/siman/sekhouz/product/monthly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453F48A6-9F7D-43BE-80B5-3BCA416AF190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سخوز-سیمان خوزستان</t>
@@ -286,7 +285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,7 +478,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -491,7 +490,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -538,23 +537,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -590,23 +572,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -758,17 +723,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AV29" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="BB89" sqref="BB89"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -823,7 +794,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,7 +851,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -937,7 +908,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -992,7 +963,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1020,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1077,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1161,7 +1132,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1373,7 +1344,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1401,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1589,7 +1560,7 @@
         <v>233530</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1748,7 +1719,7 @@
         <v>212086</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1907,7 +1878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -2066,7 +2037,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2225,7 +2196,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2384,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2543,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2702,7 +2673,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2861,7 +2832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -3020,7 +2991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3179,7 +3150,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3338,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3497,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>70</v>
       </c>
@@ -3656,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
@@ -3815,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>72</v>
       </c>
@@ -3872,7 +3843,7 @@
       <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>73</v>
       </c>
@@ -4029,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>74</v>
       </c>
@@ -4186,7 +4157,7 @@
         <v>445616</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4241,7 +4212,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4296,7 +4267,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4351,7 +4322,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>75</v>
       </c>
@@ -4508,7 +4479,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4563,7 +4534,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>75</v>
       </c>
@@ -4620,7 +4591,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
@@ -4776,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="BB35" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>58</v>
       </c>
@@ -4935,10 +4906,10 @@
         <v>0</v>
       </c>
       <c r="BB36" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>59</v>
       </c>
@@ -5097,7 +5068,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>60</v>
       </c>
@@ -5256,7 +5227,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>61</v>
       </c>
@@ -5415,7 +5386,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>62</v>
       </c>
@@ -5574,7 +5545,7 @@
         <v>10606</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>63</v>
       </c>
@@ -5733,7 +5704,7 @@
         <v>72030</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>64</v>
       </c>
@@ -5892,7 +5863,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>65</v>
       </c>
@@ -6051,7 +6022,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>66</v>
       </c>
@@ -6210,7 +6181,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>67</v>
       </c>
@@ -6369,7 +6340,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>68</v>
       </c>
@@ -6528,7 +6499,7 @@
         <v>96046</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>69</v>
       </c>
@@ -6687,7 +6658,7 @@
         <v>44609</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>70</v>
       </c>
@@ -6846,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>71</v>
       </c>
@@ -7005,7 +6976,7 @@
         <v>33174</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>72</v>
       </c>
@@ -7062,7 +7033,7 @@
       <c r="BA50" s="15"/>
       <c r="BB50" s="15"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>73</v>
       </c>
@@ -7219,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
         <v>76</v>
       </c>
@@ -7276,7 +7247,7 @@
       <c r="BA52" s="15"/>
       <c r="BB52" s="15"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>77</v>
       </c>
@@ -7433,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>74</v>
       </c>
@@ -7590,7 +7561,7 @@
         <v>256465</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7645,7 +7616,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7700,7 +7671,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7755,7 +7726,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>78</v>
       </c>
@@ -7912,7 +7883,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7967,7 +7938,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>78</v>
       </c>
@@ -8024,7 +7995,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>55</v>
       </c>
@@ -8180,10 +8151,10 @@
         <v>0</v>
       </c>
       <c r="BB61" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>58</v>
       </c>
@@ -8339,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="BB62" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>59</v>
       </c>
@@ -8501,7 +8472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>60</v>
       </c>
@@ -8660,7 +8631,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>61</v>
       </c>
@@ -8819,7 +8790,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>62</v>
       </c>
@@ -8978,7 +8949,7 @@
         <v>75996</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>63</v>
       </c>
@@ -9137,7 +9108,7 @@
         <v>554508</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>64</v>
       </c>
@@ -9296,7 +9267,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>65</v>
       </c>
@@ -9455,7 +9426,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
@@ -9614,7 +9585,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>67</v>
       </c>
@@ -9773,7 +9744,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>68</v>
       </c>
@@ -9932,7 +9903,7 @@
         <v>805222</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>69</v>
       </c>
@@ -10091,7 +10062,7 @@
         <v>403446</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>70</v>
       </c>
@@ -10250,7 +10221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>71</v>
       </c>
@@ -10409,7 +10380,7 @@
         <v>301060</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
         <v>80</v>
       </c>
@@ -10466,7 +10437,7 @@
       <c r="BA76" s="15"/>
       <c r="BB76" s="15"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
         <v>73</v>
       </c>
@@ -10625,7 +10596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
         <v>81</v>
       </c>
@@ -10682,7 +10653,7 @@
       <c r="BA78" s="15"/>
       <c r="BB78" s="15"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
         <v>77</v>
       </c>
@@ -10841,7 +10812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>82</v>
       </c>
@@ -10898,7 +10869,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>83</v>
       </c>
@@ -11057,7 +11028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
         <v>74</v>
       </c>
@@ -11214,7 +11185,7 @@
         <v>2140232</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -11269,7 +11240,7 @@
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -11324,7 +11295,7 @@
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -11379,7 +11350,7 @@
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
     </row>
-    <row r="86" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
         <v>84</v>
       </c>
@@ -11536,7 +11507,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -11591,7 +11562,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
         <v>85</v>
       </c>
@@ -11648,7 +11619,7 @@
       <c r="BA88" s="9"/>
       <c r="BB88" s="9"/>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>55</v>
       </c>
@@ -11807,7 +11778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>58</v>
       </c>
@@ -11966,7 +11937,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>59</v>
       </c>
@@ -12125,7 +12096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>60</v>
       </c>
@@ -12284,7 +12255,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>61</v>
       </c>
@@ -12443,7 +12414,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>62</v>
       </c>
@@ -12602,7 +12573,7 @@
         <v>7165378</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>63</v>
       </c>
@@ -12761,7 +12732,7 @@
         <v>7698292</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>64</v>
       </c>
@@ -12920,7 +12891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>65</v>
       </c>
@@ -13079,7 +13050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>66</v>
       </c>
@@ -13238,7 +13209,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>67</v>
       </c>
@@ -13397,7 +13368,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>68</v>
       </c>
@@ -13556,7 +13527,7 @@
         <v>8383712</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>69</v>
       </c>
@@ -13715,7 +13686,7 @@
         <v>9044049</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>71</v>
       </c>

--- a/database/industries/siman/sekhouz/product/monthly.xlsx
+++ b/database/industries/siman/sekhouz/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\sekhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5246FB98-D011-47E1-BECA-55C0CD818206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -186,6 +181,12 @@
     <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>کلینکر</t>
   </si>
   <si>
@@ -285,7 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,7 +479,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -490,7 +491,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -537,6 +538,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -572,6 +590,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -723,16 +758,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB102"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AV29" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="BB89" sqref="BB89"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1427,137 +1456,137 @@
       <c r="J11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>57</v>
+      <c r="K11" s="11">
+        <v>207807</v>
+      </c>
+      <c r="L11" s="11">
+        <v>177221</v>
       </c>
       <c r="M11" s="11">
-        <v>207807</v>
+        <v>242624</v>
       </c>
       <c r="N11" s="11">
-        <v>177221</v>
+        <v>213694</v>
       </c>
       <c r="O11" s="11">
-        <v>242624</v>
+        <v>189166</v>
       </c>
       <c r="P11" s="11">
-        <v>213694</v>
+        <v>188811</v>
       </c>
       <c r="Q11" s="11">
-        <v>189166</v>
+        <v>174173</v>
       </c>
       <c r="R11" s="11">
-        <v>188811</v>
+        <v>198233</v>
       </c>
       <c r="S11" s="11">
-        <v>174173</v>
+        <v>207831</v>
       </c>
       <c r="T11" s="11">
-        <v>198233</v>
+        <v>153970</v>
       </c>
       <c r="U11" s="11">
-        <v>207831</v>
+        <v>179187</v>
       </c>
       <c r="V11" s="11">
-        <v>153970</v>
+        <v>129405</v>
       </c>
       <c r="W11" s="11">
-        <v>179187</v>
+        <v>160871</v>
       </c>
       <c r="X11" s="11">
-        <v>129405</v>
+        <v>218937</v>
       </c>
       <c r="Y11" s="11">
-        <v>160871</v>
+        <v>233379</v>
       </c>
       <c r="Z11" s="11">
-        <v>218937</v>
+        <v>198862</v>
       </c>
       <c r="AA11" s="11">
-        <v>233379</v>
+        <v>206822</v>
       </c>
       <c r="AB11" s="11">
-        <v>198862</v>
+        <v>197338</v>
       </c>
       <c r="AC11" s="11">
-        <v>206822</v>
+        <v>184979</v>
       </c>
       <c r="AD11" s="11">
-        <v>197338</v>
+        <v>195928</v>
       </c>
       <c r="AE11" s="11">
-        <v>184979</v>
+        <v>229622</v>
       </c>
       <c r="AF11" s="11">
-        <v>195928</v>
+        <v>207845</v>
       </c>
       <c r="AG11" s="11">
-        <v>229622</v>
+        <v>199773</v>
       </c>
       <c r="AH11" s="11">
-        <v>207845</v>
+        <v>216943</v>
       </c>
       <c r="AI11" s="11">
-        <v>199773</v>
+        <v>70917</v>
       </c>
       <c r="AJ11" s="11">
-        <v>216943</v>
+        <v>177576</v>
       </c>
       <c r="AK11" s="11">
-        <v>70917</v>
+        <v>230670</v>
       </c>
       <c r="AL11" s="11">
-        <v>177576</v>
+        <v>222266</v>
       </c>
       <c r="AM11" s="11">
-        <v>230670</v>
+        <v>221725</v>
       </c>
       <c r="AN11" s="11">
-        <v>222266</v>
+        <v>223845</v>
       </c>
       <c r="AO11" s="11">
-        <v>221725</v>
+        <v>216540</v>
       </c>
       <c r="AP11" s="11">
-        <v>223845</v>
+        <v>173373</v>
       </c>
       <c r="AQ11" s="11">
-        <v>216540</v>
+        <v>167997</v>
       </c>
       <c r="AR11" s="11">
-        <v>173373</v>
+        <v>215825</v>
       </c>
       <c r="AS11" s="11">
-        <v>167997</v>
+        <v>187895</v>
       </c>
       <c r="AT11" s="11">
-        <v>215825</v>
+        <v>187170</v>
       </c>
       <c r="AU11" s="11">
-        <v>187895</v>
+        <v>193920</v>
       </c>
       <c r="AV11" s="11">
-        <v>187170</v>
+        <v>166810</v>
       </c>
       <c r="AW11" s="11">
-        <v>193920</v>
+        <v>213003</v>
       </c>
       <c r="AX11" s="11">
-        <v>166810</v>
+        <v>206175</v>
       </c>
       <c r="AY11" s="11">
-        <v>213003</v>
+        <v>218421</v>
       </c>
       <c r="AZ11" s="11">
-        <v>206175</v>
+        <v>233530</v>
       </c>
       <c r="BA11" s="11">
-        <v>218421</v>
+        <v>219115</v>
       </c>
       <c r="BB11" s="11">
-        <v>233530</v>
+        <v>190105</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
@@ -1586,137 +1615,137 @@
       <c r="J12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>57</v>
+      <c r="K12" s="13">
+        <v>80614</v>
+      </c>
+      <c r="L12" s="13">
+        <v>84224</v>
       </c>
       <c r="M12" s="13">
-        <v>80614</v>
+        <v>75720</v>
       </c>
       <c r="N12" s="13">
-        <v>84224</v>
+        <v>130945</v>
       </c>
       <c r="O12" s="13">
-        <v>75720</v>
+        <v>134430</v>
       </c>
       <c r="P12" s="13">
-        <v>130945</v>
+        <v>149979</v>
       </c>
       <c r="Q12" s="13">
-        <v>134430</v>
+        <v>155807</v>
       </c>
       <c r="R12" s="13">
-        <v>149979</v>
+        <v>111622</v>
       </c>
       <c r="S12" s="13">
-        <v>155807</v>
+        <v>161314</v>
       </c>
       <c r="T12" s="13">
-        <v>111622</v>
+        <v>83274</v>
       </c>
       <c r="U12" s="13">
-        <v>161314</v>
+        <v>112955</v>
       </c>
       <c r="V12" s="13">
-        <v>83274</v>
+        <v>115686</v>
       </c>
       <c r="W12" s="13">
-        <v>112955</v>
+        <v>138611</v>
       </c>
       <c r="X12" s="13">
-        <v>115686</v>
+        <v>137448</v>
       </c>
       <c r="Y12" s="13">
-        <v>138611</v>
+        <v>165319</v>
       </c>
       <c r="Z12" s="13">
-        <v>137448</v>
+        <v>148209</v>
       </c>
       <c r="AA12" s="13">
-        <v>165319</v>
+        <v>193078</v>
       </c>
       <c r="AB12" s="13">
-        <v>148209</v>
+        <v>123270</v>
       </c>
       <c r="AC12" s="13">
-        <v>193078</v>
+        <v>137075</v>
       </c>
       <c r="AD12" s="13">
-        <v>123270</v>
+        <v>170809</v>
       </c>
       <c r="AE12" s="13">
-        <v>137075</v>
+        <v>169566</v>
       </c>
       <c r="AF12" s="13">
-        <v>170809</v>
+        <v>121106</v>
       </c>
       <c r="AG12" s="13">
-        <v>169566</v>
+        <v>127014</v>
       </c>
       <c r="AH12" s="13">
-        <v>121106</v>
+        <v>124468</v>
       </c>
       <c r="AI12" s="13">
-        <v>127014</v>
+        <v>92253</v>
       </c>
       <c r="AJ12" s="13">
-        <v>124468</v>
+        <v>116609</v>
       </c>
       <c r="AK12" s="13">
-        <v>92253</v>
+        <v>183389</v>
       </c>
       <c r="AL12" s="13">
-        <v>116609</v>
+        <v>165271</v>
       </c>
       <c r="AM12" s="13">
-        <v>183389</v>
+        <v>176681</v>
       </c>
       <c r="AN12" s="13">
-        <v>165271</v>
+        <v>191349</v>
       </c>
       <c r="AO12" s="13">
-        <v>176681</v>
+        <v>162860</v>
       </c>
       <c r="AP12" s="13">
-        <v>191349</v>
+        <v>140080</v>
       </c>
       <c r="AQ12" s="13">
-        <v>162860</v>
+        <v>142800</v>
       </c>
       <c r="AR12" s="13">
-        <v>140080</v>
+        <v>166445</v>
       </c>
       <c r="AS12" s="13">
-        <v>142800</v>
+        <v>144696</v>
       </c>
       <c r="AT12" s="13">
-        <v>166445</v>
+        <v>126349</v>
       </c>
       <c r="AU12" s="13">
-        <v>144696</v>
+        <v>139954</v>
       </c>
       <c r="AV12" s="13">
-        <v>126349</v>
+        <v>73028</v>
       </c>
       <c r="AW12" s="13">
-        <v>139954</v>
+        <v>177939</v>
       </c>
       <c r="AX12" s="13">
-        <v>73028</v>
+        <v>157258</v>
       </c>
       <c r="AY12" s="13">
-        <v>177939</v>
+        <v>195423</v>
       </c>
       <c r="AZ12" s="13">
-        <v>157258</v>
+        <v>212086</v>
       </c>
       <c r="BA12" s="13">
-        <v>195423</v>
+        <v>180905</v>
       </c>
       <c r="BB12" s="13">
-        <v>212086</v>
+        <v>196213</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.25">
@@ -1728,25 +1757,25 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="F13" s="11">
-        <v>40447</v>
+        <v>43524</v>
       </c>
       <c r="G13" s="11">
-        <v>18450</v>
+        <v>3345</v>
       </c>
       <c r="H13" s="11">
-        <v>43524</v>
+        <v>33300</v>
       </c>
       <c r="I13" s="11">
-        <v>3345</v>
+        <v>6422</v>
       </c>
       <c r="J13" s="11">
-        <v>33300</v>
+        <v>0</v>
       </c>
       <c r="K13" s="11">
-        <v>6422</v>
+        <v>0</v>
       </c>
       <c r="L13" s="11">
         <v>0</v>
@@ -1772,11 +1801,11 @@
       <c r="S13" s="11">
         <v>0</v>
       </c>
-      <c r="T13" s="11">
-        <v>0</v>
-      </c>
-      <c r="U13" s="11">
-        <v>0</v>
+      <c r="T13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V13" s="11" t="s">
         <v>57</v>
@@ -1887,22 +1916,22 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>50704</v>
+        <v>0</v>
       </c>
       <c r="F14" s="13">
-        <v>38500</v>
+        <v>0</v>
       </c>
       <c r="G14" s="13">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="H14" s="13">
-        <v>0</v>
+        <v>15747</v>
       </c>
       <c r="I14" s="13">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="13">
-        <v>15747</v>
+        <v>0</v>
       </c>
       <c r="K14" s="13">
         <v>0</v>
@@ -1931,11 +1960,11 @@
       <c r="S14" s="13">
         <v>0</v>
       </c>
-      <c r="T14" s="13">
-        <v>0</v>
-      </c>
-      <c r="U14" s="13">
-        <v>0</v>
+      <c r="T14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V14" s="13" t="s">
         <v>57</v>
@@ -2046,28 +2075,28 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>187419</v>
+        <v>72068</v>
       </c>
       <c r="F15" s="11">
-        <v>128450</v>
+        <v>102166</v>
       </c>
       <c r="G15" s="11">
-        <v>72068</v>
+        <v>124136</v>
       </c>
       <c r="H15" s="11">
-        <v>102166</v>
+        <v>53790</v>
       </c>
       <c r="I15" s="11">
-        <v>124136</v>
+        <v>103350</v>
       </c>
       <c r="J15" s="11">
-        <v>53790</v>
+        <v>104145</v>
       </c>
       <c r="K15" s="11">
-        <v>103350</v>
+        <v>0</v>
       </c>
       <c r="L15" s="11">
-        <v>104145</v>
+        <v>0</v>
       </c>
       <c r="M15" s="11">
         <v>0</v>
@@ -2090,11 +2119,11 @@
       <c r="S15" s="11">
         <v>0</v>
       </c>
-      <c r="T15" s="11">
-        <v>0</v>
-      </c>
-      <c r="U15" s="11">
-        <v>0</v>
+      <c r="T15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V15" s="11" t="s">
         <v>57</v>
@@ -2321,11 +2350,11 @@
       <c r="AQ16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS16" s="13" t="s">
-        <v>57</v>
+      <c r="AR16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>0</v>
       </c>
       <c r="AT16" s="13">
         <v>0</v>
@@ -2480,11 +2509,11 @@
       <c r="AQ17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>57</v>
+      <c r="AR17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>0</v>
       </c>
       <c r="AT17" s="11">
         <v>0</v>
@@ -2523,28 +2552,28 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>0</v>
+        <v>48752</v>
       </c>
       <c r="F18" s="13">
-        <v>6763</v>
+        <v>25246</v>
       </c>
       <c r="G18" s="13">
-        <v>48752</v>
+        <v>16317</v>
       </c>
       <c r="H18" s="13">
-        <v>25246</v>
+        <v>50806</v>
       </c>
       <c r="I18" s="13">
-        <v>16317</v>
+        <v>165384</v>
       </c>
       <c r="J18" s="13">
-        <v>50806</v>
+        <v>50128</v>
       </c>
       <c r="K18" s="13">
-        <v>165384</v>
+        <v>0</v>
       </c>
       <c r="L18" s="13">
-        <v>50128</v>
+        <v>0</v>
       </c>
       <c r="M18" s="13">
         <v>0</v>
@@ -2567,11 +2596,11 @@
       <c r="S18" s="13">
         <v>0</v>
       </c>
-      <c r="T18" s="13">
-        <v>0</v>
-      </c>
-      <c r="U18" s="13">
-        <v>0</v>
+      <c r="T18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V18" s="13" t="s">
         <v>57</v>
@@ -2699,11 +2728,11 @@
       <c r="J19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>57</v>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
       </c>
       <c r="M19" s="11">
         <v>0</v>
@@ -2762,11 +2791,11 @@
       <c r="AE19" s="11">
         <v>0</v>
       </c>
-      <c r="AF19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="11">
-        <v>0</v>
+      <c r="AF19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH19" s="11" t="s">
         <v>57</v>
@@ -2921,11 +2950,11 @@
       <c r="AE20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG20" s="13" t="s">
-        <v>57</v>
+      <c r="AF20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>0</v>
       </c>
       <c r="AH20" s="13">
         <v>0</v>
@@ -2957,11 +2986,11 @@
       <c r="AQ20" s="13">
         <v>0</v>
       </c>
-      <c r="AR20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="13">
-        <v>0</v>
+      <c r="AR20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT20" s="13" t="s">
         <v>57</v>
@@ -3080,11 +3109,11 @@
       <c r="AE21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG21" s="11" t="s">
-        <v>57</v>
+      <c r="AF21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>0</v>
       </c>
       <c r="AH21" s="11">
         <v>0</v>
@@ -3116,11 +3145,11 @@
       <c r="AQ21" s="11">
         <v>0</v>
       </c>
-      <c r="AR21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="11">
-        <v>0</v>
+      <c r="AR21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT21" s="11" t="s">
         <v>57</v>
@@ -3275,11 +3304,11 @@
       <c r="AQ22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS22" s="13" t="s">
-        <v>57</v>
+      <c r="AR22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="13">
+        <v>0</v>
       </c>
       <c r="AT22" s="13">
         <v>0</v>
@@ -3434,11 +3463,11 @@
       <c r="AQ23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS23" s="11" t="s">
-        <v>57</v>
+      <c r="AR23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="11">
+        <v>0</v>
       </c>
       <c r="AT23" s="11">
         <v>0</v>
@@ -3593,11 +3622,11 @@
       <c r="AQ24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS24" s="13" t="s">
-        <v>57</v>
+      <c r="AR24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="13">
+        <v>0</v>
       </c>
       <c r="AT24" s="13">
         <v>0</v>
@@ -3752,11 +3781,11 @@
       <c r="AQ25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS25" s="11" t="s">
-        <v>57</v>
+      <c r="AR25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="11">
+        <v>0</v>
       </c>
       <c r="AT25" s="11">
         <v>0</v>
@@ -3903,11 +3932,11 @@
       <c r="V27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X27" s="17" t="s">
-        <v>57</v>
+      <c r="W27" s="17">
+        <v>0</v>
+      </c>
+      <c r="X27" s="17">
+        <v>0</v>
       </c>
       <c r="Y27" s="17">
         <v>0</v>
@@ -4007,154 +4036,154 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19">
-        <v>238123</v>
+        <v>139270</v>
       </c>
       <c r="F28" s="19">
-        <v>214160</v>
+        <v>170936</v>
       </c>
       <c r="G28" s="19">
-        <v>139270</v>
+        <v>178798</v>
       </c>
       <c r="H28" s="19">
-        <v>170936</v>
+        <v>153643</v>
       </c>
       <c r="I28" s="19">
-        <v>178798</v>
+        <v>275156</v>
       </c>
       <c r="J28" s="19">
-        <v>153643</v>
+        <v>154273</v>
       </c>
       <c r="K28" s="19">
-        <v>275156</v>
+        <v>288421</v>
       </c>
       <c r="L28" s="19">
-        <v>154273</v>
+        <v>261445</v>
       </c>
       <c r="M28" s="19">
-        <v>288421</v>
+        <v>318344</v>
       </c>
       <c r="N28" s="19">
-        <v>261445</v>
+        <v>344639</v>
       </c>
       <c r="O28" s="19">
-        <v>318344</v>
+        <v>323596</v>
       </c>
       <c r="P28" s="19">
-        <v>344639</v>
+        <v>338790</v>
       </c>
       <c r="Q28" s="19">
-        <v>323596</v>
+        <v>329980</v>
       </c>
       <c r="R28" s="19">
-        <v>338790</v>
+        <v>309855</v>
       </c>
       <c r="S28" s="19">
-        <v>329980</v>
+        <v>369145</v>
       </c>
       <c r="T28" s="19">
-        <v>309855</v>
+        <v>237244</v>
       </c>
       <c r="U28" s="19">
-        <v>369145</v>
+        <v>292142</v>
       </c>
       <c r="V28" s="19">
-        <v>237244</v>
+        <v>245091</v>
       </c>
       <c r="W28" s="19">
-        <v>292142</v>
+        <v>299482</v>
       </c>
       <c r="X28" s="19">
-        <v>245091</v>
+        <v>356385</v>
       </c>
       <c r="Y28" s="19">
-        <v>299482</v>
+        <v>398698</v>
       </c>
       <c r="Z28" s="19">
-        <v>356385</v>
+        <v>347071</v>
       </c>
       <c r="AA28" s="19">
-        <v>398698</v>
+        <v>399900</v>
       </c>
       <c r="AB28" s="19">
-        <v>347071</v>
+        <v>320608</v>
       </c>
       <c r="AC28" s="19">
-        <v>399900</v>
+        <v>322054</v>
       </c>
       <c r="AD28" s="19">
-        <v>320608</v>
+        <v>366737</v>
       </c>
       <c r="AE28" s="19">
-        <v>322054</v>
+        <v>399188</v>
       </c>
       <c r="AF28" s="19">
-        <v>366737</v>
+        <v>328951</v>
       </c>
       <c r="AG28" s="19">
-        <v>399188</v>
+        <v>326787</v>
       </c>
       <c r="AH28" s="19">
-        <v>328951</v>
+        <v>341411</v>
       </c>
       <c r="AI28" s="19">
-        <v>326787</v>
+        <v>163170</v>
       </c>
       <c r="AJ28" s="19">
-        <v>341411</v>
+        <v>294185</v>
       </c>
       <c r="AK28" s="19">
-        <v>163170</v>
+        <v>414059</v>
       </c>
       <c r="AL28" s="19">
-        <v>294185</v>
+        <v>387537</v>
       </c>
       <c r="AM28" s="19">
-        <v>414059</v>
+        <v>398406</v>
       </c>
       <c r="AN28" s="19">
-        <v>387537</v>
+        <v>415194</v>
       </c>
       <c r="AO28" s="19">
-        <v>398406</v>
+        <v>379400</v>
       </c>
       <c r="AP28" s="19">
-        <v>415194</v>
+        <v>313453</v>
       </c>
       <c r="AQ28" s="19">
-        <v>379400</v>
+        <v>310797</v>
       </c>
       <c r="AR28" s="19">
-        <v>313453</v>
+        <v>382270</v>
       </c>
       <c r="AS28" s="19">
-        <v>310797</v>
+        <v>332591</v>
       </c>
       <c r="AT28" s="19">
-        <v>382270</v>
+        <v>313519</v>
       </c>
       <c r="AU28" s="19">
-        <v>332591</v>
+        <v>333874</v>
       </c>
       <c r="AV28" s="19">
-        <v>313519</v>
+        <v>239838</v>
       </c>
       <c r="AW28" s="19">
-        <v>333874</v>
+        <v>390942</v>
       </c>
       <c r="AX28" s="19">
-        <v>239838</v>
+        <v>363433</v>
       </c>
       <c r="AY28" s="19">
-        <v>390942</v>
+        <v>413844</v>
       </c>
       <c r="AZ28" s="19">
-        <v>363433</v>
+        <v>445616</v>
       </c>
       <c r="BA28" s="19">
-        <v>413844</v>
+        <v>400020</v>
       </c>
       <c r="BB28" s="19">
-        <v>445616</v>
+        <v>386318</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.25">
@@ -4617,11 +4646,11 @@
       <c r="J35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>57</v>
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
       </c>
       <c r="M35" s="11">
         <v>0</v>
@@ -4747,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="BB35" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.25">
@@ -4776,11 +4805,11 @@
       <c r="J36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>57</v>
+      <c r="K36" s="13">
+        <v>0</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0</v>
       </c>
       <c r="M36" s="13">
         <v>0</v>
@@ -4906,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="BB36" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.25">
@@ -4924,16 +4953,16 @@
         <v>0</v>
       </c>
       <c r="G37" s="11">
-        <v>0</v>
+        <v>61687</v>
       </c>
       <c r="H37" s="11">
-        <v>0</v>
+        <v>53300</v>
       </c>
       <c r="I37" s="11">
-        <v>61687</v>
+        <v>0</v>
       </c>
       <c r="J37" s="11">
-        <v>53300</v>
+        <v>0</v>
       </c>
       <c r="K37" s="11">
         <v>0</v>
@@ -4962,11 +4991,11 @@
       <c r="S37" s="11">
         <v>0</v>
       </c>
-      <c r="T37" s="11">
-        <v>0</v>
-      </c>
-      <c r="U37" s="11">
-        <v>0</v>
+      <c r="T37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V37" s="11" t="s">
         <v>57</v>
@@ -5077,22 +5106,22 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13">
+        <v>35000</v>
+      </c>
+      <c r="H38" s="13">
         <v>27000</v>
       </c>
-      <c r="F38" s="13">
-        <v>27000</v>
-      </c>
-      <c r="G38" s="13">
-        <v>0</v>
-      </c>
-      <c r="H38" s="13">
-        <v>0</v>
-      </c>
       <c r="I38" s="13">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="J38" s="13">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="K38" s="13">
         <v>0</v>
@@ -5121,11 +5150,11 @@
       <c r="S38" s="13">
         <v>0</v>
       </c>
-      <c r="T38" s="13">
-        <v>0</v>
-      </c>
-      <c r="U38" s="13">
-        <v>0</v>
+      <c r="T38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V38" s="13" t="s">
         <v>57</v>
@@ -5236,28 +5265,28 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>110207</v>
+        <v>72068</v>
       </c>
       <c r="F39" s="11">
-        <v>106697</v>
+        <v>110312</v>
       </c>
       <c r="G39" s="11">
-        <v>72068</v>
+        <v>124136</v>
       </c>
       <c r="H39" s="11">
-        <v>110312</v>
+        <v>53790</v>
       </c>
       <c r="I39" s="11">
-        <v>124136</v>
+        <v>103350</v>
       </c>
       <c r="J39" s="11">
-        <v>53790</v>
+        <v>83332</v>
       </c>
       <c r="K39" s="11">
-        <v>103350</v>
+        <v>0</v>
       </c>
       <c r="L39" s="11">
-        <v>83332</v>
+        <v>0</v>
       </c>
       <c r="M39" s="11">
         <v>0</v>
@@ -5280,11 +5309,11 @@
       <c r="S39" s="11">
         <v>0</v>
       </c>
-      <c r="T39" s="11">
-        <v>0</v>
-      </c>
-      <c r="U39" s="11">
-        <v>0</v>
+      <c r="T39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V39" s="11" t="s">
         <v>57</v>
@@ -5511,38 +5540,38 @@
       <c r="AQ40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS40" s="13" t="s">
-        <v>57</v>
+      <c r="AR40" s="13">
+        <v>2783</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>4918</v>
       </c>
       <c r="AT40" s="13">
-        <v>2783</v>
+        <v>5808</v>
       </c>
       <c r="AU40" s="13">
-        <v>4918</v>
+        <v>5699</v>
       </c>
       <c r="AV40" s="13">
-        <v>5808</v>
+        <v>2345</v>
       </c>
       <c r="AW40" s="13">
-        <v>5699</v>
+        <v>5832</v>
       </c>
       <c r="AX40" s="13">
-        <v>2345</v>
+        <v>13977</v>
       </c>
       <c r="AY40" s="13">
-        <v>5832</v>
+        <v>8513</v>
       </c>
       <c r="AZ40" s="13">
-        <v>13977</v>
+        <v>10606</v>
       </c>
       <c r="BA40" s="13">
-        <v>8513</v>
+        <v>5696</v>
       </c>
       <c r="BB40" s="13">
-        <v>10606</v>
+        <v>8526</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.25">
@@ -5670,38 +5699,38 @@
       <c r="AQ41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS41" s="11" t="s">
-        <v>57</v>
+      <c r="AR41" s="11">
+        <v>50189</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>58213</v>
       </c>
       <c r="AT41" s="11">
-        <v>50189</v>
+        <v>50533</v>
       </c>
       <c r="AU41" s="11">
-        <v>58213</v>
+        <v>62394</v>
       </c>
       <c r="AV41" s="11">
-        <v>50533</v>
+        <v>39837</v>
       </c>
       <c r="AW41" s="11">
-        <v>62394</v>
+        <v>57218</v>
       </c>
       <c r="AX41" s="11">
-        <v>39837</v>
+        <v>53208</v>
       </c>
       <c r="AY41" s="11">
-        <v>57218</v>
+        <v>75630</v>
       </c>
       <c r="AZ41" s="11">
-        <v>53208</v>
+        <v>72030</v>
       </c>
       <c r="BA41" s="11">
-        <v>75630</v>
+        <v>53105</v>
       </c>
       <c r="BB41" s="11">
-        <v>72030</v>
+        <v>71846</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.25">
@@ -5713,28 +5742,28 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>26551</v>
+        <v>48752</v>
       </c>
       <c r="F42" s="13">
-        <v>6763</v>
+        <v>25246</v>
       </c>
       <c r="G42" s="13">
-        <v>48752</v>
+        <v>16317</v>
       </c>
       <c r="H42" s="13">
-        <v>25246</v>
+        <v>105008</v>
       </c>
       <c r="I42" s="13">
-        <v>16317</v>
+        <v>165384</v>
       </c>
       <c r="J42" s="13">
-        <v>105008</v>
+        <v>195651</v>
       </c>
       <c r="K42" s="13">
-        <v>165384</v>
+        <v>0</v>
       </c>
       <c r="L42" s="13">
-        <v>195651</v>
+        <v>0</v>
       </c>
       <c r="M42" s="13">
         <v>0</v>
@@ -5757,11 +5786,11 @@
       <c r="S42" s="13">
         <v>0</v>
       </c>
-      <c r="T42" s="13">
-        <v>0</v>
-      </c>
-      <c r="U42" s="13">
-        <v>0</v>
+      <c r="T42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V42" s="13" t="s">
         <v>57</v>
@@ -5889,74 +5918,74 @@
       <c r="J43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L43" s="11" t="s">
-        <v>57</v>
+      <c r="K43" s="11">
+        <v>164248</v>
+      </c>
+      <c r="L43" s="11">
+        <v>212523</v>
       </c>
       <c r="M43" s="11">
-        <v>164248</v>
+        <v>150985</v>
       </c>
       <c r="N43" s="11">
-        <v>212523</v>
+        <v>220266</v>
       </c>
       <c r="O43" s="11">
-        <v>150985</v>
+        <v>207335</v>
       </c>
       <c r="P43" s="11">
-        <v>220266</v>
+        <v>275859</v>
       </c>
       <c r="Q43" s="11">
-        <v>207335</v>
+        <v>215802</v>
       </c>
       <c r="R43" s="11">
-        <v>275859</v>
+        <v>217537</v>
       </c>
       <c r="S43" s="11">
-        <v>215802</v>
+        <v>236302</v>
       </c>
       <c r="T43" s="11">
-        <v>217537</v>
+        <v>145714</v>
       </c>
       <c r="U43" s="11">
-        <v>236302</v>
+        <v>155551</v>
       </c>
       <c r="V43" s="11">
-        <v>145714</v>
+        <v>172636</v>
       </c>
       <c r="W43" s="11">
-        <v>155551</v>
+        <v>222106</v>
       </c>
       <c r="X43" s="11">
-        <v>172636</v>
+        <v>250261</v>
       </c>
       <c r="Y43" s="11">
-        <v>222106</v>
+        <v>235441</v>
       </c>
       <c r="Z43" s="11">
-        <v>250261</v>
+        <v>184958</v>
       </c>
       <c r="AA43" s="11">
-        <v>235441</v>
+        <v>231642</v>
       </c>
       <c r="AB43" s="11">
-        <v>184958</v>
+        <v>206984</v>
       </c>
       <c r="AC43" s="11">
-        <v>231642</v>
+        <v>197306</v>
       </c>
       <c r="AD43" s="11">
-        <v>206984</v>
+        <v>196162</v>
       </c>
       <c r="AE43" s="11">
-        <v>197306</v>
-      </c>
-      <c r="AF43" s="11">
-        <v>196162</v>
-      </c>
-      <c r="AG43" s="11">
         <v>273249</v>
+      </c>
+      <c r="AF43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG43" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH43" s="11" t="s">
         <v>57</v>
@@ -6111,47 +6140,47 @@
       <c r="AE44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG44" s="13" t="s">
-        <v>57</v>
+      <c r="AF44" s="13">
+        <v>88925</v>
+      </c>
+      <c r="AG44" s="13">
+        <v>130220</v>
       </c>
       <c r="AH44" s="13">
-        <v>88925</v>
+        <v>122962</v>
       </c>
       <c r="AI44" s="13">
-        <v>130220</v>
+        <v>55575</v>
       </c>
       <c r="AJ44" s="13">
-        <v>122962</v>
+        <v>96042</v>
       </c>
       <c r="AK44" s="13">
-        <v>55575</v>
+        <v>137362</v>
       </c>
       <c r="AL44" s="13">
-        <v>96042</v>
+        <v>129027</v>
       </c>
       <c r="AM44" s="13">
-        <v>137362</v>
+        <v>146476</v>
       </c>
       <c r="AN44" s="13">
-        <v>129027</v>
+        <v>133770</v>
       </c>
       <c r="AO44" s="13">
-        <v>146476</v>
+        <v>114993</v>
       </c>
       <c r="AP44" s="13">
-        <v>133770</v>
+        <v>120925</v>
       </c>
       <c r="AQ44" s="13">
-        <v>114993</v>
-      </c>
-      <c r="AR44" s="13">
-        <v>120925</v>
-      </c>
-      <c r="AS44" s="13">
         <v>112059</v>
+      </c>
+      <c r="AR44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS44" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT44" s="13" t="s">
         <v>57</v>
@@ -6270,47 +6299,47 @@
       <c r="AE45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG45" s="11" t="s">
-        <v>57</v>
+      <c r="AF45" s="11">
+        <v>79292</v>
+      </c>
+      <c r="AG45" s="11">
+        <v>101570</v>
       </c>
       <c r="AH45" s="11">
-        <v>79292</v>
+        <v>58129</v>
       </c>
       <c r="AI45" s="11">
-        <v>101570</v>
+        <v>30651</v>
       </c>
       <c r="AJ45" s="11">
-        <v>58129</v>
+        <v>27000</v>
       </c>
       <c r="AK45" s="11">
-        <v>30651</v>
+        <v>115491</v>
       </c>
       <c r="AL45" s="11">
-        <v>27000</v>
+        <v>105237</v>
       </c>
       <c r="AM45" s="11">
-        <v>115491</v>
+        <v>134001</v>
       </c>
       <c r="AN45" s="11">
-        <v>105237</v>
+        <v>149635</v>
       </c>
       <c r="AO45" s="11">
-        <v>134001</v>
+        <v>103486</v>
       </c>
       <c r="AP45" s="11">
-        <v>149635</v>
+        <v>74404</v>
       </c>
       <c r="AQ45" s="11">
-        <v>103486</v>
-      </c>
-      <c r="AR45" s="11">
-        <v>74404</v>
-      </c>
-      <c r="AS45" s="11">
         <v>73341</v>
+      </c>
+      <c r="AR45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS45" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT45" s="11" t="s">
         <v>57</v>
@@ -6465,38 +6494,38 @@
       <c r="AQ46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS46" s="13" t="s">
-        <v>57</v>
+      <c r="AR46" s="13">
+        <v>94043</v>
+      </c>
+      <c r="AS46" s="13">
+        <v>64358</v>
       </c>
       <c r="AT46" s="13">
-        <v>94043</v>
+        <v>42874</v>
       </c>
       <c r="AU46" s="13">
-        <v>64358</v>
+        <v>43965</v>
       </c>
       <c r="AV46" s="13">
-        <v>42874</v>
+        <v>33802</v>
       </c>
       <c r="AW46" s="13">
-        <v>43965</v>
+        <v>65313</v>
       </c>
       <c r="AX46" s="13">
-        <v>33802</v>
+        <v>57011</v>
       </c>
       <c r="AY46" s="13">
-        <v>65313</v>
+        <v>80029</v>
       </c>
       <c r="AZ46" s="13">
-        <v>57011</v>
+        <v>96046</v>
       </c>
       <c r="BA46" s="13">
-        <v>80029</v>
+        <v>85409</v>
       </c>
       <c r="BB46" s="13">
-        <v>96046</v>
+        <v>98823</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.25">
@@ -6624,38 +6653,38 @@
       <c r="AQ47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS47" s="11" t="s">
-        <v>57</v>
+      <c r="AR47" s="11">
+        <v>17836</v>
+      </c>
+      <c r="AS47" s="11">
+        <v>20046</v>
       </c>
       <c r="AT47" s="11">
-        <v>17836</v>
+        <v>16474</v>
       </c>
       <c r="AU47" s="11">
-        <v>20046</v>
+        <v>12446</v>
       </c>
       <c r="AV47" s="11">
-        <v>16474</v>
+        <v>10273</v>
       </c>
       <c r="AW47" s="11">
-        <v>12446</v>
+        <v>31767</v>
       </c>
       <c r="AX47" s="11">
-        <v>10273</v>
+        <v>37005</v>
       </c>
       <c r="AY47" s="11">
-        <v>31767</v>
+        <v>45857</v>
       </c>
       <c r="AZ47" s="11">
-        <v>37005</v>
+        <v>44609</v>
       </c>
       <c r="BA47" s="11">
-        <v>45857</v>
+        <v>39311</v>
       </c>
       <c r="BB47" s="11">
-        <v>44609</v>
+        <v>34069</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.25">
@@ -6783,11 +6812,11 @@
       <c r="AQ48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS48" s="13" t="s">
-        <v>57</v>
+      <c r="AR48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="13">
+        <v>0</v>
       </c>
       <c r="AT48" s="13">
         <v>0</v>
@@ -6942,38 +6971,38 @@
       <c r="AQ49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS49" s="11" t="s">
-        <v>57</v>
+      <c r="AR49" s="11">
+        <v>60360</v>
+      </c>
+      <c r="AS49" s="11">
+        <v>48384</v>
       </c>
       <c r="AT49" s="11">
-        <v>60360</v>
+        <v>40882</v>
       </c>
       <c r="AU49" s="11">
-        <v>48384</v>
+        <v>36245</v>
       </c>
       <c r="AV49" s="11">
-        <v>40882</v>
+        <v>61048</v>
       </c>
       <c r="AW49" s="11">
-        <v>36245</v>
+        <v>85770</v>
       </c>
       <c r="AX49" s="11">
-        <v>61048</v>
+        <v>55156</v>
       </c>
       <c r="AY49" s="11">
-        <v>85770</v>
+        <v>62557</v>
       </c>
       <c r="AZ49" s="11">
-        <v>55156</v>
+        <v>33174</v>
       </c>
       <c r="BA49" s="11">
-        <v>62557</v>
+        <v>37095</v>
       </c>
       <c r="BB49" s="11">
-        <v>33174</v>
+        <v>21255</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.25">
@@ -7093,11 +7122,11 @@
       <c r="V51" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W51" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X51" s="17" t="s">
-        <v>57</v>
+      <c r="W51" s="17">
+        <v>0</v>
+      </c>
+      <c r="X51" s="17">
+        <v>0</v>
       </c>
       <c r="Y51" s="17">
         <v>0</v>
@@ -7307,11 +7336,11 @@
       <c r="V53" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W53" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X53" s="17" t="s">
-        <v>57</v>
+      <c r="W53" s="17">
+        <v>0</v>
+      </c>
+      <c r="X53" s="17">
+        <v>0</v>
       </c>
       <c r="Y53" s="17">
         <v>0</v>
@@ -7411,154 +7440,154 @@
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19">
-        <v>163758</v>
+        <v>120820</v>
       </c>
       <c r="F54" s="19">
-        <v>140460</v>
+        <v>135558</v>
       </c>
       <c r="G54" s="19">
-        <v>120820</v>
+        <v>237140</v>
       </c>
       <c r="H54" s="19">
-        <v>135558</v>
+        <v>239098</v>
       </c>
       <c r="I54" s="19">
-        <v>237140</v>
+        <v>268734</v>
       </c>
       <c r="J54" s="19">
-        <v>239098</v>
+        <v>278983</v>
       </c>
       <c r="K54" s="19">
-        <v>268734</v>
+        <v>164248</v>
       </c>
       <c r="L54" s="19">
-        <v>278983</v>
+        <v>212523</v>
       </c>
       <c r="M54" s="19">
-        <v>164248</v>
+        <v>150985</v>
       </c>
       <c r="N54" s="19">
-        <v>212523</v>
+        <v>220266</v>
       </c>
       <c r="O54" s="19">
-        <v>150985</v>
+        <v>207335</v>
       </c>
       <c r="P54" s="19">
-        <v>220266</v>
+        <v>275859</v>
       </c>
       <c r="Q54" s="19">
-        <v>207335</v>
+        <v>215802</v>
       </c>
       <c r="R54" s="19">
-        <v>275859</v>
+        <v>217537</v>
       </c>
       <c r="S54" s="19">
-        <v>215802</v>
+        <v>236302</v>
       </c>
       <c r="T54" s="19">
-        <v>217537</v>
+        <v>145714</v>
       </c>
       <c r="U54" s="19">
-        <v>236302</v>
+        <v>155551</v>
       </c>
       <c r="V54" s="19">
-        <v>145714</v>
+        <v>172636</v>
       </c>
       <c r="W54" s="19">
-        <v>155551</v>
+        <v>222106</v>
       </c>
       <c r="X54" s="19">
-        <v>172636</v>
+        <v>250261</v>
       </c>
       <c r="Y54" s="19">
-        <v>222106</v>
+        <v>235441</v>
       </c>
       <c r="Z54" s="19">
-        <v>250261</v>
+        <v>184958</v>
       </c>
       <c r="AA54" s="19">
-        <v>235441</v>
+        <v>231642</v>
       </c>
       <c r="AB54" s="19">
-        <v>184958</v>
+        <v>206984</v>
       </c>
       <c r="AC54" s="19">
-        <v>231642</v>
+        <v>197306</v>
       </c>
       <c r="AD54" s="19">
-        <v>206984</v>
+        <v>196162</v>
       </c>
       <c r="AE54" s="19">
-        <v>197306</v>
+        <v>273249</v>
       </c>
       <c r="AF54" s="19">
-        <v>196162</v>
+        <v>168217</v>
       </c>
       <c r="AG54" s="19">
-        <v>273249</v>
+        <v>231790</v>
       </c>
       <c r="AH54" s="19">
-        <v>168217</v>
+        <v>181091</v>
       </c>
       <c r="AI54" s="19">
-        <v>231790</v>
+        <v>86226</v>
       </c>
       <c r="AJ54" s="19">
-        <v>181091</v>
+        <v>123042</v>
       </c>
       <c r="AK54" s="19">
-        <v>86226</v>
+        <v>252853</v>
       </c>
       <c r="AL54" s="19">
-        <v>123042</v>
+        <v>234264</v>
       </c>
       <c r="AM54" s="19">
-        <v>252853</v>
+        <v>280477</v>
       </c>
       <c r="AN54" s="19">
-        <v>234264</v>
+        <v>283405</v>
       </c>
       <c r="AO54" s="19">
-        <v>280477</v>
+        <v>218479</v>
       </c>
       <c r="AP54" s="19">
-        <v>283405</v>
+        <v>195329</v>
       </c>
       <c r="AQ54" s="19">
-        <v>218479</v>
+        <v>185400</v>
       </c>
       <c r="AR54" s="19">
-        <v>195329</v>
+        <v>225211</v>
       </c>
       <c r="AS54" s="19">
-        <v>185400</v>
+        <v>195919</v>
       </c>
       <c r="AT54" s="19">
-        <v>225211</v>
+        <v>156571</v>
       </c>
       <c r="AU54" s="19">
-        <v>195919</v>
+        <v>160749</v>
       </c>
       <c r="AV54" s="19">
-        <v>156571</v>
+        <v>147305</v>
       </c>
       <c r="AW54" s="19">
-        <v>160749</v>
+        <v>245900</v>
       </c>
       <c r="AX54" s="19">
-        <v>147305</v>
+        <v>216357</v>
       </c>
       <c r="AY54" s="19">
-        <v>245900</v>
+        <v>272586</v>
       </c>
       <c r="AZ54" s="19">
-        <v>216357</v>
+        <v>256465</v>
       </c>
       <c r="BA54" s="19">
-        <v>272586</v>
+        <v>220616</v>
       </c>
       <c r="BB54" s="19">
-        <v>256465</v>
+        <v>234519</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.25">
@@ -8021,11 +8050,11 @@
       <c r="J61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L61" s="11" t="s">
-        <v>57</v>
+      <c r="K61" s="11">
+        <v>0</v>
+      </c>
+      <c r="L61" s="11">
+        <v>0</v>
       </c>
       <c r="M61" s="11">
         <v>0</v>
@@ -8151,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="BB61" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.25">
@@ -8180,11 +8209,11 @@
       <c r="J62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L62" s="13" t="s">
-        <v>57</v>
+      <c r="K62" s="13">
+        <v>0</v>
+      </c>
+      <c r="L62" s="13">
+        <v>0</v>
       </c>
       <c r="M62" s="13">
         <v>0</v>
@@ -8310,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="BB62" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.25">
@@ -8328,16 +8357,16 @@
         <v>0</v>
       </c>
       <c r="G63" s="11">
-        <v>0</v>
+        <v>111865</v>
       </c>
       <c r="H63" s="11">
-        <v>0</v>
+        <v>98605</v>
       </c>
       <c r="I63" s="11">
-        <v>111865</v>
+        <v>0</v>
       </c>
       <c r="J63" s="11">
-        <v>98605</v>
+        <v>0</v>
       </c>
       <c r="K63" s="11">
         <v>0</v>
@@ -8366,11 +8395,11 @@
       <c r="S63" s="11">
         <v>0</v>
       </c>
-      <c r="T63" s="11">
-        <v>0</v>
-      </c>
-      <c r="U63" s="11">
-        <v>0</v>
+      <c r="T63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U63" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V63" s="11" t="s">
         <v>57</v>
@@ -8481,22 +8510,22 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>57645</v>
+        <v>0</v>
       </c>
       <c r="F64" s="13">
-        <v>57645</v>
+        <v>0</v>
       </c>
       <c r="G64" s="13">
-        <v>0</v>
+        <v>74725</v>
       </c>
       <c r="H64" s="13">
-        <v>0</v>
+        <v>82350</v>
       </c>
       <c r="I64" s="13">
-        <v>74725</v>
+        <v>0</v>
       </c>
       <c r="J64" s="13">
-        <v>82350</v>
+        <v>0</v>
       </c>
       <c r="K64" s="13">
         <v>0</v>
@@ -8525,11 +8554,11 @@
       <c r="S64" s="13">
         <v>0</v>
       </c>
-      <c r="T64" s="13">
-        <v>0</v>
-      </c>
-      <c r="U64" s="13">
-        <v>0</v>
+      <c r="T64" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U64" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V64" s="13" t="s">
         <v>57</v>
@@ -8640,28 +8669,28 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>165068</v>
+        <v>109698</v>
       </c>
       <c r="F65" s="11">
-        <v>165562</v>
+        <v>170806</v>
       </c>
       <c r="G65" s="11">
-        <v>109698</v>
+        <v>191210</v>
       </c>
       <c r="H65" s="11">
-        <v>170806</v>
+        <v>85527</v>
       </c>
       <c r="I65" s="11">
-        <v>191210</v>
+        <v>165648</v>
       </c>
       <c r="J65" s="11">
-        <v>85527</v>
+        <v>125092</v>
       </c>
       <c r="K65" s="11">
-        <v>165648</v>
+        <v>0</v>
       </c>
       <c r="L65" s="11">
-        <v>125092</v>
+        <v>0</v>
       </c>
       <c r="M65" s="11">
         <v>0</v>
@@ -8684,11 +8713,11 @@
       <c r="S65" s="11">
         <v>0</v>
       </c>
-      <c r="T65" s="11">
-        <v>0</v>
-      </c>
-      <c r="U65" s="11">
-        <v>0</v>
+      <c r="T65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U65" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V65" s="11" t="s">
         <v>57</v>
@@ -8915,38 +8944,38 @@
       <c r="AQ66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR66" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS66" s="13" t="s">
-        <v>57</v>
+      <c r="AR66" s="13">
+        <v>15951</v>
+      </c>
+      <c r="AS66" s="13">
+        <v>27656</v>
       </c>
       <c r="AT66" s="13">
-        <v>15951</v>
+        <v>35488</v>
       </c>
       <c r="AU66" s="13">
-        <v>27656</v>
+        <v>40761</v>
       </c>
       <c r="AV66" s="13">
-        <v>35488</v>
+        <v>16790</v>
       </c>
       <c r="AW66" s="13">
-        <v>40761</v>
+        <v>37978</v>
       </c>
       <c r="AX66" s="13">
-        <v>16790</v>
+        <v>82648</v>
       </c>
       <c r="AY66" s="13">
-        <v>37978</v>
+        <v>57120</v>
       </c>
       <c r="AZ66" s="13">
-        <v>82648</v>
+        <v>75996</v>
       </c>
       <c r="BA66" s="13">
-        <v>57120</v>
+        <v>42711</v>
       </c>
       <c r="BB66" s="13">
-        <v>75996</v>
+        <v>61376</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.25">
@@ -9074,38 +9103,38 @@
       <c r="AQ67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS67" s="11" t="s">
-        <v>57</v>
+      <c r="AR67" s="11">
+        <v>316878</v>
+      </c>
+      <c r="AS67" s="11">
+        <v>368851</v>
       </c>
       <c r="AT67" s="11">
-        <v>316878</v>
+        <v>333513</v>
       </c>
       <c r="AU67" s="11">
-        <v>368851</v>
+        <v>459273</v>
       </c>
       <c r="AV67" s="11">
-        <v>333513</v>
+        <v>280899</v>
       </c>
       <c r="AW67" s="11">
-        <v>459273</v>
+        <v>398610</v>
       </c>
       <c r="AX67" s="11">
-        <v>280899</v>
+        <v>377322</v>
       </c>
       <c r="AY67" s="11">
-        <v>398610</v>
+        <v>559493</v>
       </c>
       <c r="AZ67" s="11">
-        <v>377322</v>
+        <v>554508</v>
       </c>
       <c r="BA67" s="11">
-        <v>559493</v>
+        <v>425655</v>
       </c>
       <c r="BB67" s="11">
-        <v>554508</v>
+        <v>543198</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.25">
@@ -9117,28 +9146,28 @@
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>39223</v>
+        <v>54875</v>
       </c>
       <c r="F68" s="13">
-        <v>8399</v>
+        <v>20956</v>
       </c>
       <c r="G68" s="13">
-        <v>54875</v>
+        <v>24328</v>
       </c>
       <c r="H68" s="13">
-        <v>20956</v>
+        <v>132502</v>
       </c>
       <c r="I68" s="13">
-        <v>24328</v>
+        <v>248582</v>
       </c>
       <c r="J68" s="13">
-        <v>132502</v>
+        <v>250065</v>
       </c>
       <c r="K68" s="13">
-        <v>248582</v>
+        <v>0</v>
       </c>
       <c r="L68" s="13">
-        <v>250065</v>
+        <v>0</v>
       </c>
       <c r="M68" s="13">
         <v>0</v>
@@ -9161,11 +9190,11 @@
       <c r="S68" s="13">
         <v>0</v>
       </c>
-      <c r="T68" s="13">
-        <v>0</v>
-      </c>
-      <c r="U68" s="13">
-        <v>0</v>
+      <c r="T68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U68" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V68" s="13" t="s">
         <v>57</v>
@@ -9293,74 +9322,74 @@
       <c r="J69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L69" s="11" t="s">
-        <v>57</v>
+      <c r="K69" s="11">
+        <v>321570</v>
+      </c>
+      <c r="L69" s="11">
+        <v>387589</v>
       </c>
       <c r="M69" s="11">
-        <v>321570</v>
+        <v>271567</v>
       </c>
       <c r="N69" s="11">
-        <v>387589</v>
+        <v>427448</v>
       </c>
       <c r="O69" s="11">
-        <v>271567</v>
+        <v>415325</v>
       </c>
       <c r="P69" s="11">
-        <v>427448</v>
+        <v>563781</v>
       </c>
       <c r="Q69" s="11">
-        <v>415325</v>
+        <v>456861</v>
       </c>
       <c r="R69" s="11">
-        <v>563781</v>
+        <v>512716</v>
       </c>
       <c r="S69" s="11">
-        <v>456861</v>
+        <v>629003</v>
       </c>
       <c r="T69" s="11">
-        <v>512716</v>
+        <v>294499</v>
       </c>
       <c r="U69" s="11">
-        <v>629003</v>
+        <v>340540</v>
       </c>
       <c r="V69" s="11">
-        <v>294499</v>
+        <v>384269</v>
       </c>
       <c r="W69" s="11">
-        <v>340540</v>
+        <v>596173</v>
       </c>
       <c r="X69" s="11">
-        <v>384269</v>
+        <v>937181</v>
       </c>
       <c r="Y69" s="11">
-        <v>596173</v>
+        <v>812103</v>
       </c>
       <c r="Z69" s="11">
-        <v>937181</v>
+        <v>573522</v>
       </c>
       <c r="AA69" s="11">
-        <v>812103</v>
+        <v>824269</v>
       </c>
       <c r="AB69" s="11">
-        <v>573522</v>
+        <v>756140</v>
       </c>
       <c r="AC69" s="11">
-        <v>824269</v>
+        <v>739085</v>
       </c>
       <c r="AD69" s="11">
-        <v>756140</v>
+        <v>742679</v>
       </c>
       <c r="AE69" s="11">
-        <v>739085</v>
-      </c>
-      <c r="AF69" s="11">
-        <v>742679</v>
-      </c>
-      <c r="AG69" s="11">
         <v>960153</v>
+      </c>
+      <c r="AF69" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG69" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH69" s="11" t="s">
         <v>57</v>
@@ -9515,47 +9544,47 @@
       <c r="AE70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG70" s="13" t="s">
-        <v>57</v>
+      <c r="AF70" s="13">
+        <v>236434</v>
+      </c>
+      <c r="AG70" s="13">
+        <v>481290</v>
       </c>
       <c r="AH70" s="13">
-        <v>236434</v>
+        <v>471921</v>
       </c>
       <c r="AI70" s="13">
-        <v>481290</v>
+        <v>221291</v>
       </c>
       <c r="AJ70" s="13">
-        <v>471921</v>
+        <v>448266</v>
       </c>
       <c r="AK70" s="13">
-        <v>221291</v>
+        <v>637426</v>
       </c>
       <c r="AL70" s="13">
-        <v>448266</v>
+        <v>549913</v>
       </c>
       <c r="AM70" s="13">
-        <v>637426</v>
+        <v>619945</v>
       </c>
       <c r="AN70" s="13">
-        <v>549913</v>
+        <v>626143</v>
       </c>
       <c r="AO70" s="13">
-        <v>619945</v>
+        <v>551198</v>
       </c>
       <c r="AP70" s="13">
-        <v>626143</v>
+        <v>557384</v>
       </c>
       <c r="AQ70" s="13">
-        <v>551198</v>
-      </c>
-      <c r="AR70" s="13">
-        <v>557384</v>
-      </c>
-      <c r="AS70" s="13">
         <v>554624</v>
+      </c>
+      <c r="AR70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS70" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT70" s="13" t="s">
         <v>57</v>
@@ -9674,47 +9703,47 @@
       <c r="AE71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF71" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG71" s="11" t="s">
-        <v>57</v>
+      <c r="AF71" s="11">
+        <v>410543</v>
+      </c>
+      <c r="AG71" s="11">
+        <v>486464</v>
       </c>
       <c r="AH71" s="11">
-        <v>410543</v>
+        <v>294131</v>
       </c>
       <c r="AI71" s="11">
-        <v>486464</v>
+        <v>195680</v>
       </c>
       <c r="AJ71" s="11">
-        <v>294131</v>
+        <v>202745</v>
       </c>
       <c r="AK71" s="11">
-        <v>195680</v>
+        <v>813197</v>
       </c>
       <c r="AL71" s="11">
-        <v>202745</v>
+        <v>759445</v>
       </c>
       <c r="AM71" s="11">
-        <v>813197</v>
+        <v>924241</v>
       </c>
       <c r="AN71" s="11">
-        <v>759445</v>
+        <v>1051376</v>
       </c>
       <c r="AO71" s="11">
-        <v>924241</v>
+        <v>726992</v>
       </c>
       <c r="AP71" s="11">
-        <v>1051376</v>
+        <v>510285</v>
       </c>
       <c r="AQ71" s="11">
-        <v>726992</v>
-      </c>
-      <c r="AR71" s="11">
-        <v>510285</v>
-      </c>
-      <c r="AS71" s="11">
         <v>493183</v>
+      </c>
+      <c r="AR71" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT71" s="11" t="s">
         <v>57</v>
@@ -9869,38 +9898,38 @@
       <c r="AQ72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR72" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS72" s="13" t="s">
-        <v>57</v>
+      <c r="AR72" s="13">
+        <v>554523</v>
+      </c>
+      <c r="AS72" s="13">
+        <v>364059</v>
       </c>
       <c r="AT72" s="13">
-        <v>554523</v>
+        <v>208862</v>
       </c>
       <c r="AU72" s="13">
-        <v>364059</v>
+        <v>328561</v>
       </c>
       <c r="AV72" s="13">
-        <v>208862</v>
+        <v>237733</v>
       </c>
       <c r="AW72" s="13">
-        <v>328561</v>
+        <v>495981</v>
       </c>
       <c r="AX72" s="13">
-        <v>237733</v>
+        <v>459676</v>
       </c>
       <c r="AY72" s="13">
-        <v>495981</v>
+        <v>664679</v>
       </c>
       <c r="AZ72" s="13">
-        <v>459676</v>
+        <v>805222</v>
       </c>
       <c r="BA72" s="13">
-        <v>664679</v>
+        <v>693058</v>
       </c>
       <c r="BB72" s="13">
-        <v>805222</v>
+        <v>1035845</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.25">
@@ -10028,38 +10057,38 @@
       <c r="AQ73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR73" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS73" s="11" t="s">
-        <v>57</v>
+      <c r="AR73" s="11">
+        <v>112295</v>
+      </c>
+      <c r="AS73" s="11">
+        <v>117587</v>
       </c>
       <c r="AT73" s="11">
-        <v>112295</v>
+        <v>81680</v>
       </c>
       <c r="AU73" s="11">
-        <v>117587</v>
+        <v>77458</v>
       </c>
       <c r="AV73" s="11">
-        <v>81680</v>
+        <v>65418</v>
       </c>
       <c r="AW73" s="11">
-        <v>77458</v>
+        <v>229492</v>
       </c>
       <c r="AX73" s="11">
-        <v>65418</v>
+        <v>253596</v>
       </c>
       <c r="AY73" s="11">
-        <v>229492</v>
+        <v>413441</v>
       </c>
       <c r="AZ73" s="11">
-        <v>253596</v>
+        <v>403446</v>
       </c>
       <c r="BA73" s="11">
-        <v>413441</v>
+        <v>348131</v>
       </c>
       <c r="BB73" s="11">
-        <v>403446</v>
+        <v>405769</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.25">
@@ -10187,11 +10216,11 @@
       <c r="AQ74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR74" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS74" s="13" t="s">
-        <v>57</v>
+      <c r="AR74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS74" s="13">
+        <v>0</v>
       </c>
       <c r="AT74" s="13">
         <v>0</v>
@@ -10346,38 +10375,38 @@
       <c r="AQ75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR75" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS75" s="11" t="s">
-        <v>57</v>
+      <c r="AR75" s="11">
+        <v>393945</v>
+      </c>
+      <c r="AS75" s="11">
+        <v>333814</v>
       </c>
       <c r="AT75" s="11">
-        <v>393945</v>
+        <v>279551</v>
       </c>
       <c r="AU75" s="11">
-        <v>333814</v>
+        <v>300194</v>
       </c>
       <c r="AV75" s="11">
-        <v>279551</v>
+        <v>523288</v>
       </c>
       <c r="AW75" s="11">
-        <v>300194</v>
+        <v>747034</v>
       </c>
       <c r="AX75" s="11">
-        <v>523288</v>
+        <v>490493</v>
       </c>
       <c r="AY75" s="11">
-        <v>747034</v>
+        <v>566384</v>
       </c>
       <c r="AZ75" s="11">
-        <v>490493</v>
+        <v>301060</v>
       </c>
       <c r="BA75" s="11">
-        <v>566384</v>
+        <v>351386</v>
       </c>
       <c r="BB75" s="11">
-        <v>301060</v>
+        <v>202888</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.25">
@@ -10499,11 +10528,11 @@
       <c r="V77" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W77" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X77" s="17" t="s">
-        <v>57</v>
+      <c r="W77" s="17">
+        <v>0</v>
+      </c>
+      <c r="X77" s="17">
+        <v>0</v>
       </c>
       <c r="Y77" s="17">
         <v>0</v>
@@ -10715,11 +10744,11 @@
       <c r="V79" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W79" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X79" s="17" t="s">
-        <v>57</v>
+      <c r="W79" s="17">
+        <v>0</v>
+      </c>
+      <c r="X79" s="17">
+        <v>0</v>
       </c>
       <c r="Y79" s="17">
         <v>0</v>
@@ -10931,11 +10960,11 @@
       <c r="V81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>57</v>
+      <c r="W81" s="11">
+        <v>0</v>
+      </c>
+      <c r="X81" s="11">
+        <v>0</v>
       </c>
       <c r="Y81" s="11">
         <v>0</v>
@@ -11035,154 +11064,154 @@
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19">
-        <v>261936</v>
+        <v>164573</v>
       </c>
       <c r="F82" s="19">
-        <v>231606</v>
+        <v>191762</v>
       </c>
       <c r="G82" s="19">
-        <v>164573</v>
+        <v>402128</v>
       </c>
       <c r="H82" s="19">
-        <v>191762</v>
+        <v>398984</v>
       </c>
       <c r="I82" s="19">
-        <v>402128</v>
+        <v>414230</v>
       </c>
       <c r="J82" s="19">
-        <v>398984</v>
+        <v>375157</v>
       </c>
       <c r="K82" s="19">
-        <v>414230</v>
+        <v>321570</v>
       </c>
       <c r="L82" s="19">
-        <v>375157</v>
+        <v>387589</v>
       </c>
       <c r="M82" s="19">
-        <v>321570</v>
+        <v>271567</v>
       </c>
       <c r="N82" s="19">
-        <v>387589</v>
+        <v>427448</v>
       </c>
       <c r="O82" s="19">
-        <v>271567</v>
+        <v>415325</v>
       </c>
       <c r="P82" s="19">
-        <v>427448</v>
+        <v>563781</v>
       </c>
       <c r="Q82" s="19">
-        <v>415325</v>
+        <v>456861</v>
       </c>
       <c r="R82" s="19">
-        <v>563781</v>
+        <v>512716</v>
       </c>
       <c r="S82" s="19">
-        <v>456861</v>
+        <v>629003</v>
       </c>
       <c r="T82" s="19">
-        <v>512716</v>
+        <v>294499</v>
       </c>
       <c r="U82" s="19">
-        <v>629003</v>
+        <v>340540</v>
       </c>
       <c r="V82" s="19">
-        <v>294499</v>
+        <v>384269</v>
       </c>
       <c r="W82" s="19">
-        <v>340540</v>
+        <v>596173</v>
       </c>
       <c r="X82" s="19">
-        <v>384269</v>
+        <v>937181</v>
       </c>
       <c r="Y82" s="19">
-        <v>596173</v>
+        <v>812103</v>
       </c>
       <c r="Z82" s="19">
-        <v>937181</v>
+        <v>573522</v>
       </c>
       <c r="AA82" s="19">
-        <v>812103</v>
+        <v>824269</v>
       </c>
       <c r="AB82" s="19">
-        <v>573522</v>
+        <v>756140</v>
       </c>
       <c r="AC82" s="19">
-        <v>824269</v>
+        <v>739085</v>
       </c>
       <c r="AD82" s="19">
-        <v>756140</v>
+        <v>742679</v>
       </c>
       <c r="AE82" s="19">
-        <v>739085</v>
+        <v>960153</v>
       </c>
       <c r="AF82" s="19">
-        <v>742679</v>
+        <v>646977</v>
       </c>
       <c r="AG82" s="19">
-        <v>960153</v>
+        <v>967754</v>
       </c>
       <c r="AH82" s="19">
-        <v>646977</v>
+        <v>766052</v>
       </c>
       <c r="AI82" s="19">
-        <v>967754</v>
+        <v>416971</v>
       </c>
       <c r="AJ82" s="19">
-        <v>766052</v>
+        <v>651011</v>
       </c>
       <c r="AK82" s="19">
-        <v>416971</v>
+        <v>1450623</v>
       </c>
       <c r="AL82" s="19">
-        <v>651011</v>
+        <v>1309358</v>
       </c>
       <c r="AM82" s="19">
-        <v>1450623</v>
+        <v>1544186</v>
       </c>
       <c r="AN82" s="19">
-        <v>1309358</v>
+        <v>1677519</v>
       </c>
       <c r="AO82" s="19">
-        <v>1544186</v>
+        <v>1278190</v>
       </c>
       <c r="AP82" s="19">
-        <v>1677519</v>
+        <v>1067669</v>
       </c>
       <c r="AQ82" s="19">
-        <v>1278190</v>
+        <v>1047807</v>
       </c>
       <c r="AR82" s="19">
-        <v>1067669</v>
+        <v>1393592</v>
       </c>
       <c r="AS82" s="19">
-        <v>1047807</v>
+        <v>1211967</v>
       </c>
       <c r="AT82" s="19">
-        <v>1393592</v>
+        <v>939094</v>
       </c>
       <c r="AU82" s="19">
-        <v>1211967</v>
+        <v>1206247</v>
       </c>
       <c r="AV82" s="19">
-        <v>939094</v>
+        <v>1124128</v>
       </c>
       <c r="AW82" s="19">
-        <v>1206247</v>
+        <v>1909095</v>
       </c>
       <c r="AX82" s="19">
-        <v>1124128</v>
+        <v>1663735</v>
       </c>
       <c r="AY82" s="19">
-        <v>1909095</v>
+        <v>2261117</v>
       </c>
       <c r="AZ82" s="19">
-        <v>1663735</v>
+        <v>2140232</v>
       </c>
       <c r="BA82" s="19">
-        <v>2261117</v>
+        <v>1860941</v>
       </c>
       <c r="BB82" s="19">
-        <v>2140232</v>
+        <v>2249076</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.25">
@@ -11645,11 +11674,11 @@
       <c r="J89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K89" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L89" s="11" t="s">
-        <v>57</v>
+      <c r="K89" s="11">
+        <v>0</v>
+      </c>
+      <c r="L89" s="11">
+        <v>0</v>
       </c>
       <c r="M89" s="11">
         <v>0</v>
@@ -11675,11 +11704,11 @@
       <c r="T89" s="11">
         <v>0</v>
       </c>
-      <c r="U89" s="11">
-        <v>0</v>
-      </c>
-      <c r="V89" s="11">
-        <v>0</v>
+      <c r="U89" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V89" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W89" s="11" t="s">
         <v>57</v>
@@ -11804,11 +11833,11 @@
       <c r="J90" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K90" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L90" s="13" t="s">
-        <v>57</v>
+      <c r="K90" s="13">
+        <v>0</v>
+      </c>
+      <c r="L90" s="13">
+        <v>0</v>
       </c>
       <c r="M90" s="13">
         <v>0</v>
@@ -11834,11 +11863,11 @@
       <c r="T90" s="13">
         <v>0</v>
       </c>
-      <c r="U90" s="13">
-        <v>0</v>
-      </c>
-      <c r="V90" s="13">
-        <v>0</v>
+      <c r="U90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V90" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="W90" s="13" t="s">
         <v>57</v>
@@ -11952,16 +11981,16 @@
         <v>0</v>
       </c>
       <c r="G91" s="11">
-        <v>0</v>
+        <v>1813429</v>
       </c>
       <c r="H91" s="11">
-        <v>0</v>
+        <v>1850000</v>
       </c>
       <c r="I91" s="11">
-        <v>1813429</v>
+        <v>0</v>
       </c>
       <c r="J91" s="11">
-        <v>1850000</v>
+        <v>0</v>
       </c>
       <c r="K91" s="11">
         <v>0</v>
@@ -11990,11 +12019,11 @@
       <c r="S91" s="11">
         <v>0</v>
       </c>
-      <c r="T91" s="11">
-        <v>0</v>
-      </c>
-      <c r="U91" s="11">
-        <v>0</v>
+      <c r="T91" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U91" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V91" s="11" t="s">
         <v>57</v>
@@ -12105,22 +12134,22 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
+        <v>0</v>
+      </c>
+      <c r="F92" s="13">
+        <v>0</v>
+      </c>
+      <c r="G92" s="13">
         <v>2135000</v>
       </c>
-      <c r="F92" s="13">
-        <v>2135000</v>
-      </c>
-      <c r="G92" s="13">
-        <v>0</v>
-      </c>
       <c r="H92" s="13">
-        <v>0</v>
+        <v>3050000</v>
       </c>
       <c r="I92" s="13">
-        <v>2135000</v>
+        <v>0</v>
       </c>
       <c r="J92" s="13">
-        <v>3050000</v>
+        <v>0</v>
       </c>
       <c r="K92" s="13">
         <v>0</v>
@@ -12149,11 +12178,11 @@
       <c r="S92" s="13">
         <v>0</v>
       </c>
-      <c r="T92" s="13">
-        <v>0</v>
-      </c>
-      <c r="U92" s="13">
-        <v>0</v>
+      <c r="T92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U92" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V92" s="13" t="s">
         <v>57</v>
@@ -12264,28 +12293,28 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>1497800</v>
+        <v>1522146</v>
       </c>
       <c r="F93" s="11">
-        <v>1551702</v>
+        <v>1548390</v>
       </c>
       <c r="G93" s="11">
-        <v>1522146</v>
+        <v>1540327</v>
       </c>
       <c r="H93" s="11">
-        <v>1548390</v>
+        <v>1590017</v>
       </c>
       <c r="I93" s="11">
-        <v>1540327</v>
+        <v>1602787</v>
       </c>
       <c r="J93" s="11">
-        <v>1590017</v>
+        <v>1501128</v>
       </c>
       <c r="K93" s="11">
-        <v>1602787</v>
+        <v>0</v>
       </c>
       <c r="L93" s="11">
-        <v>1501128</v>
+        <v>0</v>
       </c>
       <c r="M93" s="11">
         <v>0</v>
@@ -12308,11 +12337,11 @@
       <c r="S93" s="11">
         <v>0</v>
       </c>
-      <c r="T93" s="11">
-        <v>0</v>
-      </c>
-      <c r="U93" s="11">
-        <v>0</v>
+      <c r="T93" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U93" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V93" s="11" t="s">
         <v>57</v>
@@ -12539,38 +12568,38 @@
       <c r="AQ94" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR94" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS94" s="13" t="s">
-        <v>57</v>
+      <c r="AR94" s="13">
+        <v>5731585</v>
+      </c>
+      <c r="AS94" s="13">
+        <v>5623424</v>
       </c>
       <c r="AT94" s="13">
-        <v>5731585</v>
+        <v>6110193</v>
       </c>
       <c r="AU94" s="13">
-        <v>5623424</v>
+        <v>7152307</v>
       </c>
       <c r="AV94" s="13">
-        <v>6110193</v>
+        <v>7159915</v>
       </c>
       <c r="AW94" s="13">
-        <v>7152307</v>
+        <v>6512003</v>
       </c>
       <c r="AX94" s="13">
-        <v>7159915</v>
+        <v>5913143</v>
       </c>
       <c r="AY94" s="13">
-        <v>6512003</v>
+        <v>6709738</v>
       </c>
       <c r="AZ94" s="13">
-        <v>5913143</v>
+        <v>7165378</v>
       </c>
       <c r="BA94" s="13">
-        <v>6709738</v>
+        <v>7498420</v>
       </c>
       <c r="BB94" s="13">
-        <v>7165378</v>
+        <v>7198686</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.25">
@@ -12698,38 +12727,38 @@
       <c r="AQ95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR95" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS95" s="11" t="s">
-        <v>57</v>
+      <c r="AR95" s="11">
+        <v>6313694</v>
+      </c>
+      <c r="AS95" s="11">
+        <v>6336231</v>
       </c>
       <c r="AT95" s="11">
-        <v>6313694</v>
+        <v>6599905</v>
       </c>
       <c r="AU95" s="11">
-        <v>6336231</v>
+        <v>7360852</v>
       </c>
       <c r="AV95" s="11">
-        <v>6599905</v>
+        <v>7051209</v>
       </c>
       <c r="AW95" s="11">
-        <v>7360852</v>
+        <v>6966514</v>
       </c>
       <c r="AX95" s="11">
-        <v>7051209</v>
+        <v>7091452</v>
       </c>
       <c r="AY95" s="11">
-        <v>6966514</v>
+        <v>7397765</v>
       </c>
       <c r="AZ95" s="11">
-        <v>7091452</v>
+        <v>7698292</v>
       </c>
       <c r="BA95" s="11">
-        <v>7397765</v>
+        <v>8015347</v>
       </c>
       <c r="BB95" s="11">
-        <v>7698292</v>
+        <v>7560588</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.25">
@@ -12741,28 +12770,28 @@
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13">
-        <v>1477270</v>
+        <v>1125595</v>
       </c>
       <c r="F96" s="13">
-        <v>1241904</v>
+        <v>830072</v>
       </c>
       <c r="G96" s="13">
-        <v>1125595</v>
+        <v>1490960</v>
       </c>
       <c r="H96" s="13">
-        <v>830072</v>
+        <v>1261828</v>
       </c>
       <c r="I96" s="13">
-        <v>1490960</v>
+        <v>1503060</v>
       </c>
       <c r="J96" s="13">
-        <v>1261828</v>
+        <v>1278118</v>
       </c>
       <c r="K96" s="13">
-        <v>1503060</v>
+        <v>0</v>
       </c>
       <c r="L96" s="13">
-        <v>1278118</v>
+        <v>0</v>
       </c>
       <c r="M96" s="13">
         <v>0</v>
@@ -12785,11 +12814,11 @@
       <c r="S96" s="13">
         <v>0</v>
       </c>
-      <c r="T96" s="13">
-        <v>0</v>
-      </c>
-      <c r="U96" s="13">
-        <v>0</v>
+      <c r="T96" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U96" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V96" s="13" t="s">
         <v>57</v>
@@ -12917,74 +12946,74 @@
       <c r="J97" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K97" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L97" s="11" t="s">
-        <v>57</v>
+      <c r="K97" s="11">
+        <v>1957832</v>
+      </c>
+      <c r="L97" s="11">
+        <v>1823751</v>
       </c>
       <c r="M97" s="11">
-        <v>1957832</v>
+        <v>1798636</v>
       </c>
       <c r="N97" s="11">
-        <v>1823751</v>
+        <v>1940599</v>
       </c>
       <c r="O97" s="11">
-        <v>1798636</v>
+        <v>2003159</v>
       </c>
       <c r="P97" s="11">
-        <v>1940599</v>
+        <v>2043729</v>
       </c>
       <c r="Q97" s="11">
-        <v>2003159</v>
+        <v>2117038</v>
       </c>
       <c r="R97" s="11">
-        <v>2043729</v>
+        <v>2356914</v>
       </c>
       <c r="S97" s="11">
-        <v>2117038</v>
+        <v>2661861</v>
       </c>
       <c r="T97" s="11">
-        <v>2356914</v>
+        <v>2021076</v>
       </c>
       <c r="U97" s="11">
-        <v>2661861</v>
+        <v>2189250</v>
       </c>
       <c r="V97" s="11">
-        <v>2021076</v>
+        <v>2225892</v>
       </c>
       <c r="W97" s="11">
-        <v>2189250</v>
+        <v>2684182</v>
       </c>
       <c r="X97" s="11">
-        <v>2225892</v>
+        <v>3744814</v>
       </c>
       <c r="Y97" s="11">
-        <v>2684182</v>
+        <v>3449285</v>
       </c>
       <c r="Z97" s="11">
-        <v>3744814</v>
+        <v>3100823</v>
       </c>
       <c r="AA97" s="11">
-        <v>3449285</v>
+        <v>3558375</v>
       </c>
       <c r="AB97" s="11">
-        <v>3100823</v>
+        <v>3653133</v>
       </c>
       <c r="AC97" s="11">
-        <v>3558375</v>
+        <v>3745882</v>
       </c>
       <c r="AD97" s="11">
-        <v>3653133</v>
+        <v>3786049</v>
       </c>
       <c r="AE97" s="11">
-        <v>3745882</v>
-      </c>
-      <c r="AF97" s="11">
-        <v>3786049</v>
-      </c>
-      <c r="AG97" s="11">
         <v>3513839</v>
+      </c>
+      <c r="AF97" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG97" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH97" s="11" t="s">
         <v>57</v>
@@ -13139,47 +13168,47 @@
       <c r="AE98" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF98" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG98" s="13" t="s">
-        <v>57</v>
+      <c r="AF98" s="13">
+        <v>2658802</v>
+      </c>
+      <c r="AG98" s="13">
+        <v>3695976</v>
       </c>
       <c r="AH98" s="13">
-        <v>2658802</v>
+        <v>3837942</v>
       </c>
       <c r="AI98" s="13">
-        <v>3695976</v>
+        <v>3981844</v>
       </c>
       <c r="AJ98" s="13">
-        <v>3837942</v>
+        <v>4667396</v>
       </c>
       <c r="AK98" s="13">
-        <v>3981844</v>
+        <v>4640483</v>
       </c>
       <c r="AL98" s="13">
-        <v>4667396</v>
+        <v>4261999</v>
       </c>
       <c r="AM98" s="13">
-        <v>4640483</v>
+        <v>4232400</v>
       </c>
       <c r="AN98" s="13">
-        <v>4261999</v>
+        <v>4680743</v>
       </c>
       <c r="AO98" s="13">
-        <v>4232400</v>
+        <v>4793318</v>
       </c>
       <c r="AP98" s="13">
-        <v>4680743</v>
+        <v>4609336</v>
       </c>
       <c r="AQ98" s="13">
-        <v>4793318</v>
-      </c>
-      <c r="AR98" s="13">
-        <v>4609336</v>
-      </c>
-      <c r="AS98" s="13">
         <v>4949393</v>
+      </c>
+      <c r="AR98" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS98" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT98" s="13" t="s">
         <v>57</v>
@@ -13298,47 +13327,47 @@
       <c r="AE99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF99" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG99" s="11" t="s">
-        <v>57</v>
+      <c r="AF99" s="11">
+        <v>5177609</v>
+      </c>
+      <c r="AG99" s="11">
+        <v>4789446</v>
       </c>
       <c r="AH99" s="11">
-        <v>5177609</v>
+        <v>5059970</v>
       </c>
       <c r="AI99" s="11">
-        <v>4789446</v>
+        <v>6384131</v>
       </c>
       <c r="AJ99" s="11">
-        <v>5059970</v>
+        <v>7509074</v>
       </c>
       <c r="AK99" s="11">
-        <v>6384131</v>
+        <v>7041215</v>
       </c>
       <c r="AL99" s="11">
-        <v>7509074</v>
+        <v>7216521</v>
       </c>
       <c r="AM99" s="11">
-        <v>7041215</v>
+        <v>6897269</v>
       </c>
       <c r="AN99" s="11">
-        <v>7216521</v>
+        <v>7026271</v>
       </c>
       <c r="AO99" s="11">
-        <v>6897269</v>
+        <v>7025028</v>
       </c>
       <c r="AP99" s="11">
-        <v>7026271</v>
+        <v>6858301</v>
       </c>
       <c r="AQ99" s="11">
-        <v>7025028</v>
-      </c>
-      <c r="AR99" s="11">
-        <v>6858301</v>
-      </c>
-      <c r="AS99" s="11">
         <v>6724520</v>
+      </c>
+      <c r="AR99" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS99" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT99" s="11" t="s">
         <v>57</v>
@@ -13493,38 +13522,38 @@
       <c r="AQ100" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR100" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS100" s="13" t="s">
-        <v>57</v>
+      <c r="AR100" s="13">
+        <v>5896484</v>
+      </c>
+      <c r="AS100" s="13">
+        <v>5656779</v>
       </c>
       <c r="AT100" s="13">
-        <v>5896484</v>
+        <v>4871531</v>
       </c>
       <c r="AU100" s="13">
-        <v>5656779</v>
+        <v>7473240</v>
       </c>
       <c r="AV100" s="13">
-        <v>4871531</v>
+        <v>7033105</v>
       </c>
       <c r="AW100" s="13">
-        <v>7473240</v>
+        <v>7593909</v>
       </c>
       <c r="AX100" s="13">
-        <v>7033105</v>
+        <v>8062935</v>
       </c>
       <c r="AY100" s="13">
-        <v>7593909</v>
+        <v>8305477</v>
       </c>
       <c r="AZ100" s="13">
-        <v>8062935</v>
+        <v>8383712</v>
       </c>
       <c r="BA100" s="13">
-        <v>8305477</v>
+        <v>8114578</v>
       </c>
       <c r="BB100" s="13">
-        <v>8383712</v>
+        <v>10481821</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.25">
@@ -13652,38 +13681,38 @@
       <c r="AQ101" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR101" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS101" s="11" t="s">
-        <v>57</v>
+      <c r="AR101" s="11">
+        <v>6295974</v>
+      </c>
+      <c r="AS101" s="11">
+        <v>5865859</v>
       </c>
       <c r="AT101" s="11">
-        <v>6295974</v>
+        <v>4958116</v>
       </c>
       <c r="AU101" s="11">
-        <v>5865859</v>
+        <v>6223526</v>
       </c>
       <c r="AV101" s="11">
-        <v>4958116</v>
+        <v>6367955</v>
       </c>
       <c r="AW101" s="11">
-        <v>6223526</v>
+        <v>7224226</v>
       </c>
       <c r="AX101" s="11">
-        <v>6367955</v>
+        <v>6853020</v>
       </c>
       <c r="AY101" s="11">
-        <v>7224226</v>
+        <v>9015875</v>
       </c>
       <c r="AZ101" s="11">
-        <v>6853020</v>
+        <v>9044049</v>
       </c>
       <c r="BA101" s="11">
-        <v>9015875</v>
+        <v>8855816</v>
       </c>
       <c r="BB101" s="11">
-        <v>9044049</v>
+        <v>11910212</v>
       </c>
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.25">
@@ -13811,38 +13840,38 @@
       <c r="AQ102" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR102" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS102" s="13" t="s">
-        <v>57</v>
+      <c r="AR102" s="13">
+        <v>6526590</v>
+      </c>
+      <c r="AS102" s="13">
+        <v>6899264</v>
       </c>
       <c r="AT102" s="13">
-        <v>6526590</v>
+        <v>6837997</v>
       </c>
       <c r="AU102" s="13">
-        <v>6899264</v>
+        <v>8282356</v>
       </c>
       <c r="AV102" s="13">
-        <v>6837997</v>
+        <v>8571747</v>
       </c>
       <c r="AW102" s="13">
-        <v>8282356</v>
+        <v>8709735</v>
       </c>
       <c r="AX102" s="13">
-        <v>8571747</v>
+        <v>8892831</v>
       </c>
       <c r="AY102" s="13">
-        <v>8709735</v>
+        <v>9053887</v>
       </c>
       <c r="AZ102" s="13">
-        <v>8892831</v>
+        <v>9075179</v>
       </c>
       <c r="BA102" s="13">
-        <v>9053887</v>
+        <v>9472597</v>
       </c>
       <c r="BB102" s="13">
-        <v>9075179</v>
+        <v>9545425</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/siman/sekhouz/product/monthly.xlsx
+++ b/database/industries/siman/sekhouz/product/monthly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5246FB98-D011-47E1-BECA-55C0CD818206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -187,9 +186,6 @@
     <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
-    <t>کلینکر</t>
-  </si>
-  <si>
     <t>تن</t>
   </si>
   <si>
@@ -197,9 +193,6 @@
   </si>
   <si>
     <t>سیمان</t>
-  </si>
-  <si>
-    <t>کلینکر صادراتی</t>
   </si>
   <si>
     <t>سیمان صادراتی</t>
@@ -214,28 +207,10 @@
     <t>سیمان تیپ 5-پاکتی</t>
   </si>
   <si>
-    <t>کلینکر داخلی</t>
-  </si>
-  <si>
-    <t>سیمان و کلینکر</t>
-  </si>
-  <si>
-    <t>سیمان وکلینکر داخلی</t>
-  </si>
-  <si>
-    <t>سیمان وکلینکر صادراتی</t>
-  </si>
-  <si>
     <t>سیمان2فله</t>
   </si>
   <si>
     <t>سیمان 5فله</t>
-  </si>
-  <si>
-    <t>کلینکر2</t>
-  </si>
-  <si>
-    <t>کلینکر5</t>
   </si>
   <si>
     <t>درآمد ارایه خدمات</t>
@@ -282,11 +257,26 @@
   <si>
     <t>تن / ریال</t>
   </si>
+  <si>
+    <t>سیمان و سیمان</t>
+  </si>
+  <si>
+    <t>سیمان وسیمان داخلی</t>
+  </si>
+  <si>
+    <t>سیمان وسیمان صادراتی</t>
+  </si>
+  <si>
+    <t>سیمان2</t>
+  </si>
+  <si>
+    <t>سیمان5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,10 +748,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1432,29 +1424,29 @@
     </row>
     <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" s="11">
         <v>207807</v>
@@ -1591,29 +1583,29 @@
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="13">
         <v>80614</v>
@@ -1750,10 +1742,10 @@
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
@@ -1802,117 +1794,117 @@
         <v>0</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
@@ -1961,117 +1953,117 @@
         <v>0</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
@@ -2120,235 +2112,235 @@
         <v>0</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR16" s="13">
         <v>0</v>
@@ -2386,128 +2378,128 @@
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR17" s="11">
         <v>0</v>
@@ -2545,10 +2537,10 @@
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
@@ -2597,136 +2589,136 @@
         <v>0</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" s="11">
         <v>0</v>
@@ -2792,163 +2784,163 @@
         <v>0</v>
       </c>
       <c r="AF19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF20" s="13">
         <v>0</v>
@@ -2987,127 +2979,127 @@
         <v>0</v>
       </c>
       <c r="AR20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF21" s="11">
         <v>0</v>
@@ -3146,163 +3138,163 @@
         <v>0</v>
       </c>
       <c r="AR21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR22" s="13">
         <v>0</v>
@@ -3340,128 +3332,128 @@
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR23" s="11">
         <v>0</v>
@@ -3499,128 +3491,128 @@
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR24" s="13">
         <v>0</v>
@@ -3658,128 +3650,128 @@
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR25" s="11">
         <v>0</v>
@@ -3817,7 +3809,7 @@
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -3874,63 +3866,63 @@
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W27" s="17">
         <v>0</v>
@@ -4031,7 +4023,7 @@
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -4353,7 +4345,7 @@
     </row>
     <row r="32" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -4565,7 +4557,7 @@
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -4622,29 +4614,29 @@
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35" s="11">
         <v>0</v>
@@ -4781,29 +4773,29 @@
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K36" s="13">
         <v>0</v>
@@ -4940,10 +4932,10 @@
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
@@ -4992,117 +4984,117 @@
         <v>0</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
@@ -5151,117 +5143,117 @@
         <v>0</v>
       </c>
       <c r="T38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
@@ -5310,235 +5302,235 @@
         <v>0</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR40" s="13">
         <v>2783</v>
@@ -5576,128 +5568,128 @@
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR41" s="11">
         <v>50189</v>
@@ -5735,10 +5727,10 @@
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
@@ -5787,136 +5779,136 @@
         <v>0</v>
       </c>
       <c r="T42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K43" s="11">
         <v>164248</v>
@@ -5982,163 +5974,163 @@
         <v>273249</v>
       </c>
       <c r="AF43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF44" s="13">
         <v>88925</v>
@@ -6177,127 +6169,127 @@
         <v>112059</v>
       </c>
       <c r="AR44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF45" s="11">
         <v>79292</v>
@@ -6336,163 +6328,163 @@
         <v>73341</v>
       </c>
       <c r="AR45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR46" s="13">
         <v>94043</v>
@@ -6530,128 +6522,128 @@
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR47" s="11">
         <v>17836</v>
@@ -6689,128 +6681,128 @@
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR48" s="13">
         <v>0</v>
@@ -6848,128 +6840,128 @@
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR49" s="11">
         <v>60360</v>
@@ -7007,7 +6999,7 @@
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -7064,63 +7056,63 @@
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W51" s="17">
         <v>0</v>
@@ -7221,7 +7213,7 @@
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -7278,63 +7270,63 @@
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V53" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W53" s="17">
         <v>0</v>
@@ -7435,7 +7427,7 @@
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
@@ -7757,7 +7749,7 @@
     </row>
     <row r="58" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -7969,7 +7961,7 @@
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -8026,29 +8018,29 @@
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K61" s="11">
         <v>0</v>
@@ -8185,29 +8177,29 @@
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K62" s="13">
         <v>0</v>
@@ -8344,10 +8336,10 @@
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
@@ -8396,117 +8388,117 @@
         <v>0</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
@@ -8555,117 +8547,117 @@
         <v>0</v>
       </c>
       <c r="T64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
@@ -8714,235 +8706,235 @@
         <v>0</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR66" s="13">
         <v>15951</v>
@@ -8980,128 +8972,128 @@
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR67" s="11">
         <v>316878</v>
@@ -9139,10 +9131,10 @@
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
@@ -9191,136 +9183,136 @@
         <v>0</v>
       </c>
       <c r="T68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K69" s="11">
         <v>321570</v>
@@ -9386,163 +9378,163 @@
         <v>960153</v>
       </c>
       <c r="AF69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB69" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF70" s="13">
         <v>236434</v>
@@ -9581,127 +9573,127 @@
         <v>554624</v>
       </c>
       <c r="AR70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF71" s="11">
         <v>410543</v>
@@ -9740,163 +9732,163 @@
         <v>493183</v>
       </c>
       <c r="AR71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB71" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR72" s="13">
         <v>554523</v>
@@ -9934,128 +9926,128 @@
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ73" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR73" s="11">
         <v>112295</v>
@@ -10093,128 +10085,128 @@
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR74" s="13">
         <v>0</v>
@@ -10252,128 +10244,128 @@
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR75" s="11">
         <v>393945</v>
@@ -10411,7 +10403,7 @@
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -10468,65 +10460,65 @@
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V77" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W77" s="17">
         <v>0</v>
@@ -10627,7 +10619,7 @@
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
@@ -10684,65 +10676,65 @@
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V79" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W79" s="17">
         <v>0</v>
@@ -10843,7 +10835,7 @@
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -10900,65 +10892,65 @@
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W81" s="11">
         <v>0</v>
@@ -11059,7 +11051,7 @@
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
@@ -11381,7 +11373,7 @@
     </row>
     <row r="86" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -11593,7 +11585,7 @@
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -11650,29 +11642,29 @@
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K89" s="11">
         <v>0</v>
@@ -11705,133 +11697,133 @@
         <v>0</v>
       </c>
       <c r="U89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB89" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K90" s="13">
         <v>0</v>
@@ -11864,114 +11856,114 @@
         <v>0</v>
       </c>
       <c r="U90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
@@ -12020,117 +12012,117 @@
         <v>0</v>
       </c>
       <c r="T91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB91" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
@@ -12179,117 +12171,117 @@
         <v>0</v>
       </c>
       <c r="T92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
@@ -12338,235 +12330,235 @@
         <v>0</v>
       </c>
       <c r="T93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB93" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR94" s="13">
         <v>5731585</v>
@@ -12604,128 +12596,128 @@
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ95" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR95" s="11">
         <v>6313694</v>
@@ -12763,10 +12755,10 @@
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13">
@@ -12815,136 +12807,136 @@
         <v>0</v>
       </c>
       <c r="T96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K97" s="11">
         <v>1957832</v>
@@ -13010,163 +13002,163 @@
         <v>3513839</v>
       </c>
       <c r="AF97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB97" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF98" s="13">
         <v>2658802</v>
@@ -13205,127 +13197,127 @@
         <v>4949393</v>
       </c>
       <c r="AR98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF99" s="11">
         <v>5177609</v>
@@ -13364,163 +13356,163 @@
         <v>6724520</v>
       </c>
       <c r="AR99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB99" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR100" s="13">
         <v>5896484</v>
@@ -13558,128 +13550,128 @@
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ101" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR101" s="11">
         <v>6295974</v>
@@ -13717,128 +13709,128 @@
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR102" s="13">
         <v>6526590</v>

--- a/database/industries/siman/sekhouz/product/monthly.xlsx
+++ b/database/industries/siman/sekhouz/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="87">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3401,143 +3401,143 @@
       <c r="H11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>57</v>
+      <c r="I11" s="13" t="n">
+        <v>207807</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>207807</v>
+        <v>177221</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>177221</v>
+        <v>242624</v>
       </c>
       <c r="L11" s="13" t="n">
-        <v>242624</v>
+        <v>213694</v>
       </c>
       <c r="M11" s="13" t="n">
-        <v>213694</v>
+        <v>189166</v>
       </c>
       <c r="N11" s="13" t="n">
-        <v>189166</v>
+        <v>188811</v>
       </c>
       <c r="O11" s="13" t="n">
-        <v>188811</v>
+        <v>174173</v>
       </c>
       <c r="P11" s="13" t="n">
-        <v>174173</v>
+        <v>198233</v>
       </c>
       <c r="Q11" s="13" t="n">
-        <v>198233</v>
+        <v>207831</v>
       </c>
       <c r="R11" s="13" t="n">
-        <v>207831</v>
+        <v>153970</v>
       </c>
       <c r="S11" s="13" t="n">
-        <v>153970</v>
+        <v>179187</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>179187</v>
+        <v>129405</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>129405</v>
+        <v>160871</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>160871</v>
+        <v>218937</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>218937</v>
+        <v>233379</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>233379</v>
+        <v>198862</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>198862</v>
+        <v>206822</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>206822</v>
+        <v>197338</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>197338</v>
+        <v>184979</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>184979</v>
+        <v>195928</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>195928</v>
+        <v>229622</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>229622</v>
+        <v>207845</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>207845</v>
+        <v>199773</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>199773</v>
+        <v>216943</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>216943</v>
+        <v>70917</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>70917</v>
+        <v>177576</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>177576</v>
+        <v>230670</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>230670</v>
+        <v>222266</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>222266</v>
+        <v>221725</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>221725</v>
+        <v>223845</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>223845</v>
+        <v>216540</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>216540</v>
+        <v>173373</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>173373</v>
+        <v>167997</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>167997</v>
+        <v>215825</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>215825</v>
+        <v>187895</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>187895</v>
+        <v>187170</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>187170</v>
+        <v>193920</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>193920</v>
+        <v>166810</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>166810</v>
+        <v>213003</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>213003</v>
+        <v>206175</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>206175</v>
+        <v>218421</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>218421</v>
+        <v>233530</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>233530</v>
+        <v>219115</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>219115</v>
+        <v>190105</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>190105</v>
+        <v>209230</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>209230</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,143 +3560,143 @@
       <c r="H12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>57</v>
+      <c r="I12" s="16" t="n">
+        <v>80614</v>
       </c>
       <c r="J12" s="16" t="n">
-        <v>80614</v>
+        <v>84224</v>
       </c>
       <c r="K12" s="16" t="n">
-        <v>84224</v>
+        <v>75720</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>75720</v>
+        <v>130945</v>
       </c>
       <c r="M12" s="16" t="n">
-        <v>130945</v>
+        <v>134430</v>
       </c>
       <c r="N12" s="16" t="n">
-        <v>134430</v>
+        <v>149979</v>
       </c>
       <c r="O12" s="16" t="n">
-        <v>149979</v>
+        <v>155807</v>
       </c>
       <c r="P12" s="16" t="n">
-        <v>155807</v>
+        <v>111622</v>
       </c>
       <c r="Q12" s="16" t="n">
-        <v>111622</v>
+        <v>161314</v>
       </c>
       <c r="R12" s="16" t="n">
-        <v>161314</v>
+        <v>83274</v>
       </c>
       <c r="S12" s="16" t="n">
-        <v>83274</v>
+        <v>112955</v>
       </c>
       <c r="T12" s="16" t="n">
-        <v>112955</v>
+        <v>115686</v>
       </c>
       <c r="U12" s="16" t="n">
-        <v>115686</v>
+        <v>138611</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>138611</v>
+        <v>137448</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>137448</v>
+        <v>165319</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>165319</v>
+        <v>148209</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>148209</v>
+        <v>193078</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>193078</v>
+        <v>123270</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>123270</v>
+        <v>137075</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>137075</v>
+        <v>170809</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>170809</v>
+        <v>169566</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>169566</v>
+        <v>121106</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>121106</v>
+        <v>127014</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>127014</v>
+        <v>124468</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>124468</v>
+        <v>92253</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>92253</v>
+        <v>116609</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>116609</v>
+        <v>183389</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>183389</v>
+        <v>165271</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>165271</v>
+        <v>176681</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>176681</v>
+        <v>191349</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>191349</v>
+        <v>162860</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>162860</v>
+        <v>140080</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>140080</v>
+        <v>142800</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>142800</v>
+        <v>166445</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>166445</v>
+        <v>144696</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>144696</v>
+        <v>126349</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>126349</v>
+        <v>139954</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>139954</v>
+        <v>73028</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>73028</v>
+        <v>177939</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>177939</v>
+        <v>157258</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>157258</v>
+        <v>195423</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>195423</v>
+        <v>212086</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>212086</v>
+        <v>180905</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>180905</v>
+        <v>196213</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>196213</v>
+        <v>230335</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>230335</v>
+        <v>138983</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,16 +3708,16 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="n">
-        <v>43524</v>
+        <v>3345</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>3345</v>
+        <v>33300</v>
       </c>
       <c r="G13" s="13" t="n">
-        <v>33300</v>
+        <v>6422</v>
       </c>
       <c r="H13" s="13" t="n">
-        <v>6422</v>
+        <v>0</v>
       </c>
       <c r="I13" s="13" t="n">
         <v>0</v>
@@ -3746,8 +3746,8 @@
       <c r="Q13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" s="13" t="n">
-        <v>0</v>
+      <c r="R13" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S13" s="13" t="s">
         <v>57</v>
@@ -3867,13 +3867,13 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="F14" s="16" t="n">
-        <v>35000</v>
+        <v>15747</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>15747</v>
+        <v>0</v>
       </c>
       <c r="H14" s="16" t="n">
         <v>0</v>
@@ -3905,8 +3905,8 @@
       <c r="Q14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R14" s="16" t="n">
-        <v>0</v>
+      <c r="R14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S14" s="16" t="s">
         <v>57</v>
@@ -4026,19 +4026,19 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="n">
-        <v>102166</v>
+        <v>124136</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>124136</v>
+        <v>53790</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>53790</v>
+        <v>103350</v>
       </c>
       <c r="H15" s="13" t="n">
-        <v>103350</v>
+        <v>104145</v>
       </c>
       <c r="I15" s="13" t="n">
-        <v>104145</v>
+        <v>0</v>
       </c>
       <c r="J15" s="13" t="n">
         <v>0</v>
@@ -4064,8 +4064,8 @@
       <c r="Q15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R15" s="13" t="n">
-        <v>0</v>
+      <c r="R15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S15" s="13" t="s">
         <v>57</v>
@@ -4295,8 +4295,8 @@
       <c r="AO16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP16" s="16" t="s">
-        <v>57</v>
+      <c r="AP16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ16" s="16" t="n">
         <v>0</v>
@@ -4454,8 +4454,8 @@
       <c r="AO17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP17" s="13" t="s">
-        <v>57</v>
+      <c r="AP17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ17" s="13" t="n">
         <v>0</v>
@@ -4503,19 +4503,19 @@
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16" t="n">
-        <v>25246</v>
+        <v>16317</v>
       </c>
       <c r="F18" s="16" t="n">
-        <v>16317</v>
+        <v>50806</v>
       </c>
       <c r="G18" s="16" t="n">
-        <v>50806</v>
+        <v>165384</v>
       </c>
       <c r="H18" s="16" t="n">
-        <v>165384</v>
+        <v>50128</v>
       </c>
       <c r="I18" s="16" t="n">
-        <v>50128</v>
+        <v>0</v>
       </c>
       <c r="J18" s="16" t="n">
         <v>0</v>
@@ -4541,8 +4541,8 @@
       <c r="Q18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R18" s="16" t="n">
-        <v>0</v>
+      <c r="R18" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S18" s="16" t="s">
         <v>57</v>
@@ -4673,8 +4673,8 @@
       <c r="H19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>57</v>
+      <c r="I19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="J19" s="13" t="n">
         <v>0</v>
@@ -4736,8 +4736,8 @@
       <c r="AC19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD19" s="13" t="n">
-        <v>0</v>
+      <c r="AD19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE19" s="13" t="s">
         <v>57</v>
@@ -4895,8 +4895,8 @@
       <c r="AC20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD20" s="16" t="s">
-        <v>57</v>
+      <c r="AD20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AE20" s="16" t="n">
         <v>0</v>
@@ -4931,8 +4931,8 @@
       <c r="AO20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP20" s="16" t="n">
-        <v>0</v>
+      <c r="AP20" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ20" s="16" t="s">
         <v>57</v>
@@ -5054,8 +5054,8 @@
       <c r="AC21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD21" s="13" t="s">
-        <v>57</v>
+      <c r="AD21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE21" s="13" t="n">
         <v>0</v>
@@ -5090,8 +5090,8 @@
       <c r="AO21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP21" s="13" t="n">
-        <v>0</v>
+      <c r="AP21" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ21" s="13" t="s">
         <v>57</v>
@@ -5249,8 +5249,8 @@
       <c r="AO22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP22" s="16" t="s">
-        <v>57</v>
+      <c r="AP22" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ22" s="16" t="n">
         <v>0</v>
@@ -5408,8 +5408,8 @@
       <c r="AO23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP23" s="13" t="s">
-        <v>57</v>
+      <c r="AP23" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ23" s="13" t="n">
         <v>0</v>
@@ -5567,8 +5567,8 @@
       <c r="AO24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP24" s="16" t="s">
-        <v>57</v>
+      <c r="AP24" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ24" s="16" t="n">
         <v>0</v>
@@ -5726,8 +5726,8 @@
       <c r="AO25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP25" s="13" t="s">
-        <v>57</v>
+      <c r="AP25" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ25" s="13" t="n">
         <v>0</v>
@@ -5877,8 +5877,8 @@
       <c r="T27" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U27" s="20" t="s">
-        <v>57</v>
+      <c r="U27" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V27" s="20" t="n">
         <v>0</v>
@@ -5987,154 +5987,154 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="n">
-        <v>170936</v>
+        <v>178798</v>
       </c>
       <c r="F28" s="22" t="n">
-        <v>178798</v>
+        <v>153643</v>
       </c>
       <c r="G28" s="22" t="n">
-        <v>153643</v>
+        <v>275156</v>
       </c>
       <c r="H28" s="22" t="n">
-        <v>275156</v>
+        <v>154273</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>154273</v>
+        <v>288421</v>
       </c>
       <c r="J28" s="22" t="n">
-        <v>288421</v>
+        <v>261445</v>
       </c>
       <c r="K28" s="22" t="n">
-        <v>261445</v>
+        <v>318344</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>318344</v>
+        <v>344639</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>344639</v>
+        <v>323596</v>
       </c>
       <c r="N28" s="22" t="n">
-        <v>323596</v>
+        <v>338790</v>
       </c>
       <c r="O28" s="22" t="n">
-        <v>338790</v>
+        <v>329980</v>
       </c>
       <c r="P28" s="22" t="n">
-        <v>329980</v>
+        <v>309855</v>
       </c>
       <c r="Q28" s="22" t="n">
-        <v>309855</v>
+        <v>369145</v>
       </c>
       <c r="R28" s="22" t="n">
-        <v>369145</v>
+        <v>237244</v>
       </c>
       <c r="S28" s="22" t="n">
-        <v>237244</v>
+        <v>292142</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>292142</v>
+        <v>245091</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>245091</v>
+        <v>299482</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>299482</v>
+        <v>356385</v>
       </c>
       <c r="W28" s="22" t="n">
-        <v>356385</v>
+        <v>398698</v>
       </c>
       <c r="X28" s="22" t="n">
-        <v>398698</v>
+        <v>347071</v>
       </c>
       <c r="Y28" s="22" t="n">
-        <v>347071</v>
+        <v>399900</v>
       </c>
       <c r="Z28" s="22" t="n">
-        <v>399900</v>
+        <v>320608</v>
       </c>
       <c r="AA28" s="22" t="n">
-        <v>320608</v>
+        <v>322054</v>
       </c>
       <c r="AB28" s="22" t="n">
-        <v>322054</v>
+        <v>366737</v>
       </c>
       <c r="AC28" s="22" t="n">
-        <v>366737</v>
+        <v>399188</v>
       </c>
       <c r="AD28" s="22" t="n">
-        <v>399188</v>
+        <v>328951</v>
       </c>
       <c r="AE28" s="22" t="n">
-        <v>328951</v>
+        <v>326787</v>
       </c>
       <c r="AF28" s="22" t="n">
-        <v>326787</v>
+        <v>341411</v>
       </c>
       <c r="AG28" s="22" t="n">
-        <v>341411</v>
+        <v>163170</v>
       </c>
       <c r="AH28" s="22" t="n">
-        <v>163170</v>
+        <v>294185</v>
       </c>
       <c r="AI28" s="22" t="n">
-        <v>294185</v>
+        <v>414059</v>
       </c>
       <c r="AJ28" s="22" t="n">
-        <v>414059</v>
+        <v>387537</v>
       </c>
       <c r="AK28" s="22" t="n">
-        <v>387537</v>
+        <v>398406</v>
       </c>
       <c r="AL28" s="22" t="n">
-        <v>398406</v>
+        <v>415194</v>
       </c>
       <c r="AM28" s="22" t="n">
-        <v>415194</v>
+        <v>379400</v>
       </c>
       <c r="AN28" s="22" t="n">
-        <v>379400</v>
+        <v>313453</v>
       </c>
       <c r="AO28" s="22" t="n">
-        <v>313453</v>
+        <v>310797</v>
       </c>
       <c r="AP28" s="22" t="n">
-        <v>310797</v>
+        <v>382270</v>
       </c>
       <c r="AQ28" s="22" t="n">
-        <v>382270</v>
+        <v>332591</v>
       </c>
       <c r="AR28" s="22" t="n">
-        <v>332591</v>
+        <v>313519</v>
       </c>
       <c r="AS28" s="22" t="n">
-        <v>313519</v>
+        <v>333874</v>
       </c>
       <c r="AT28" s="22" t="n">
-        <v>333874</v>
+        <v>239838</v>
       </c>
       <c r="AU28" s="22" t="n">
-        <v>239838</v>
+        <v>390942</v>
       </c>
       <c r="AV28" s="22" t="n">
-        <v>390942</v>
+        <v>363433</v>
       </c>
       <c r="AW28" s="22" t="n">
-        <v>363433</v>
+        <v>413844</v>
       </c>
       <c r="AX28" s="22" t="n">
-        <v>413844</v>
+        <v>445616</v>
       </c>
       <c r="AY28" s="22" t="n">
-        <v>445616</v>
+        <v>400020</v>
       </c>
       <c r="AZ28" s="22" t="n">
-        <v>400020</v>
+        <v>386318</v>
       </c>
       <c r="BA28" s="22" t="n">
-        <v>386318</v>
+        <v>439565</v>
       </c>
       <c r="BB28" s="22" t="n">
-        <v>439565</v>
+        <v>318983</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,8 +6591,8 @@
       <c r="H35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>57</v>
+      <c r="I35" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="J35" s="13" t="n">
         <v>0</v>
@@ -6750,8 +6750,8 @@
       <c r="H36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I36" s="16" t="s">
-        <v>57</v>
+      <c r="I36" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="J36" s="16" t="n">
         <v>0</v>
@@ -6898,13 +6898,13 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13" t="n">
-        <v>0</v>
+        <v>61687</v>
       </c>
       <c r="F37" s="13" t="n">
-        <v>61687</v>
+        <v>53300</v>
       </c>
       <c r="G37" s="13" t="n">
-        <v>53300</v>
+        <v>0</v>
       </c>
       <c r="H37" s="13" t="n">
         <v>0</v>
@@ -6936,8 +6936,8 @@
       <c r="Q37" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R37" s="13" t="n">
-        <v>0</v>
+      <c r="R37" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S37" s="13" t="s">
         <v>57</v>
@@ -7057,13 +7057,13 @@
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="F38" s="16" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="G38" s="16" t="n">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="H38" s="16" t="n">
         <v>0</v>
@@ -7095,8 +7095,8 @@
       <c r="Q38" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R38" s="16" t="n">
-        <v>0</v>
+      <c r="R38" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S38" s="16" t="s">
         <v>57</v>
@@ -7216,19 +7216,19 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="n">
-        <v>110312</v>
+        <v>124136</v>
       </c>
       <c r="F39" s="13" t="n">
-        <v>124136</v>
+        <v>53790</v>
       </c>
       <c r="G39" s="13" t="n">
-        <v>53790</v>
+        <v>103350</v>
       </c>
       <c r="H39" s="13" t="n">
-        <v>103350</v>
+        <v>83332</v>
       </c>
       <c r="I39" s="13" t="n">
-        <v>83332</v>
+        <v>0</v>
       </c>
       <c r="J39" s="13" t="n">
         <v>0</v>
@@ -7254,8 +7254,8 @@
       <c r="Q39" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R39" s="13" t="n">
-        <v>0</v>
+      <c r="R39" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S39" s="13" t="s">
         <v>57</v>
@@ -7485,44 +7485,44 @@
       <c r="AO40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP40" s="16" t="s">
-        <v>57</v>
+      <c r="AP40" s="16" t="n">
+        <v>2783</v>
       </c>
       <c r="AQ40" s="16" t="n">
-        <v>2783</v>
+        <v>4918</v>
       </c>
       <c r="AR40" s="16" t="n">
-        <v>4918</v>
+        <v>5808</v>
       </c>
       <c r="AS40" s="16" t="n">
-        <v>5808</v>
+        <v>5699</v>
       </c>
       <c r="AT40" s="16" t="n">
-        <v>5699</v>
+        <v>2345</v>
       </c>
       <c r="AU40" s="16" t="n">
-        <v>2345</v>
+        <v>5832</v>
       </c>
       <c r="AV40" s="16" t="n">
-        <v>5832</v>
+        <v>13977</v>
       </c>
       <c r="AW40" s="16" t="n">
-        <v>13977</v>
+        <v>8513</v>
       </c>
       <c r="AX40" s="16" t="n">
-        <v>8513</v>
+        <v>10606</v>
       </c>
       <c r="AY40" s="16" t="n">
-        <v>10606</v>
+        <v>5696</v>
       </c>
       <c r="AZ40" s="16" t="n">
-        <v>5696</v>
+        <v>8526</v>
       </c>
       <c r="BA40" s="16" t="n">
-        <v>8526</v>
+        <v>7084</v>
       </c>
       <c r="BB40" s="16" t="n">
-        <v>7084</v>
+        <v>9356</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7644,44 +7644,44 @@
       <c r="AO41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP41" s="13" t="s">
-        <v>57</v>
+      <c r="AP41" s="13" t="n">
+        <v>50189</v>
       </c>
       <c r="AQ41" s="13" t="n">
-        <v>50189</v>
+        <v>58213</v>
       </c>
       <c r="AR41" s="13" t="n">
-        <v>58213</v>
+        <v>50533</v>
       </c>
       <c r="AS41" s="13" t="n">
-        <v>50533</v>
+        <v>62394</v>
       </c>
       <c r="AT41" s="13" t="n">
-        <v>62394</v>
+        <v>39837</v>
       </c>
       <c r="AU41" s="13" t="n">
-        <v>39837</v>
+        <v>57218</v>
       </c>
       <c r="AV41" s="13" t="n">
-        <v>57218</v>
+        <v>53208</v>
       </c>
       <c r="AW41" s="13" t="n">
-        <v>53208</v>
+        <v>75630</v>
       </c>
       <c r="AX41" s="13" t="n">
-        <v>75630</v>
+        <v>72030</v>
       </c>
       <c r="AY41" s="13" t="n">
-        <v>72030</v>
+        <v>53105</v>
       </c>
       <c r="AZ41" s="13" t="n">
-        <v>53105</v>
+        <v>71846</v>
       </c>
       <c r="BA41" s="13" t="n">
-        <v>71846</v>
+        <v>63644</v>
       </c>
       <c r="BB41" s="13" t="n">
-        <v>63644</v>
+        <v>62403</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7693,19 +7693,19 @@
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="n">
-        <v>25246</v>
+        <v>16317</v>
       </c>
       <c r="F42" s="16" t="n">
-        <v>16317</v>
+        <v>105008</v>
       </c>
       <c r="G42" s="16" t="n">
-        <v>105008</v>
+        <v>165384</v>
       </c>
       <c r="H42" s="16" t="n">
-        <v>165384</v>
+        <v>195651</v>
       </c>
       <c r="I42" s="16" t="n">
-        <v>195651</v>
+        <v>0</v>
       </c>
       <c r="J42" s="16" t="n">
         <v>0</v>
@@ -7731,8 +7731,8 @@
       <c r="Q42" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R42" s="16" t="n">
-        <v>0</v>
+      <c r="R42" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S42" s="16" t="s">
         <v>57</v>
@@ -7863,71 +7863,71 @@
       <c r="H43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>57</v>
+      <c r="I43" s="13" t="n">
+        <v>164248</v>
       </c>
       <c r="J43" s="13" t="n">
-        <v>164248</v>
+        <v>212523</v>
       </c>
       <c r="K43" s="13" t="n">
-        <v>212523</v>
+        <v>150985</v>
       </c>
       <c r="L43" s="13" t="n">
-        <v>150985</v>
+        <v>220266</v>
       </c>
       <c r="M43" s="13" t="n">
-        <v>220266</v>
+        <v>207335</v>
       </c>
       <c r="N43" s="13" t="n">
-        <v>207335</v>
+        <v>275859</v>
       </c>
       <c r="O43" s="13" t="n">
-        <v>275859</v>
+        <v>215802</v>
       </c>
       <c r="P43" s="13" t="n">
-        <v>215802</v>
+        <v>217537</v>
       </c>
       <c r="Q43" s="13" t="n">
-        <v>217537</v>
+        <v>236302</v>
       </c>
       <c r="R43" s="13" t="n">
-        <v>236302</v>
+        <v>145714</v>
       </c>
       <c r="S43" s="13" t="n">
-        <v>145714</v>
+        <v>155551</v>
       </c>
       <c r="T43" s="13" t="n">
-        <v>155551</v>
+        <v>172636</v>
       </c>
       <c r="U43" s="13" t="n">
-        <v>172636</v>
+        <v>222106</v>
       </c>
       <c r="V43" s="13" t="n">
-        <v>222106</v>
+        <v>250261</v>
       </c>
       <c r="W43" s="13" t="n">
-        <v>250261</v>
+        <v>235441</v>
       </c>
       <c r="X43" s="13" t="n">
-        <v>235441</v>
+        <v>184958</v>
       </c>
       <c r="Y43" s="13" t="n">
-        <v>184958</v>
+        <v>231642</v>
       </c>
       <c r="Z43" s="13" t="n">
-        <v>231642</v>
+        <v>206984</v>
       </c>
       <c r="AA43" s="13" t="n">
-        <v>206984</v>
+        <v>197306</v>
       </c>
       <c r="AB43" s="13" t="n">
-        <v>197306</v>
+        <v>196162</v>
       </c>
       <c r="AC43" s="13" t="n">
-        <v>196162</v>
-      </c>
-      <c r="AD43" s="13" t="n">
         <v>273249</v>
+      </c>
+      <c r="AD43" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE43" s="13" t="s">
         <v>57</v>
@@ -8085,44 +8085,44 @@
       <c r="AC44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD44" s="16" t="s">
-        <v>57</v>
+      <c r="AD44" s="16" t="n">
+        <v>88925</v>
       </c>
       <c r="AE44" s="16" t="n">
-        <v>88925</v>
+        <v>130220</v>
       </c>
       <c r="AF44" s="16" t="n">
-        <v>130220</v>
+        <v>122962</v>
       </c>
       <c r="AG44" s="16" t="n">
-        <v>122962</v>
+        <v>55575</v>
       </c>
       <c r="AH44" s="16" t="n">
-        <v>55575</v>
+        <v>96042</v>
       </c>
       <c r="AI44" s="16" t="n">
-        <v>96042</v>
+        <v>137362</v>
       </c>
       <c r="AJ44" s="16" t="n">
-        <v>137362</v>
+        <v>129027</v>
       </c>
       <c r="AK44" s="16" t="n">
-        <v>129027</v>
+        <v>146476</v>
       </c>
       <c r="AL44" s="16" t="n">
-        <v>146476</v>
+        <v>133770</v>
       </c>
       <c r="AM44" s="16" t="n">
-        <v>133770</v>
+        <v>114993</v>
       </c>
       <c r="AN44" s="16" t="n">
-        <v>114993</v>
+        <v>120925</v>
       </c>
       <c r="AO44" s="16" t="n">
-        <v>120925</v>
-      </c>
-      <c r="AP44" s="16" t="n">
         <v>112059</v>
+      </c>
+      <c r="AP44" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ44" s="16" t="s">
         <v>57</v>
@@ -8244,44 +8244,44 @@
       <c r="AC45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD45" s="13" t="s">
-        <v>57</v>
+      <c r="AD45" s="13" t="n">
+        <v>79292</v>
       </c>
       <c r="AE45" s="13" t="n">
-        <v>79292</v>
+        <v>101570</v>
       </c>
       <c r="AF45" s="13" t="n">
-        <v>101570</v>
+        <v>58129</v>
       </c>
       <c r="AG45" s="13" t="n">
-        <v>58129</v>
+        <v>30651</v>
       </c>
       <c r="AH45" s="13" t="n">
-        <v>30651</v>
+        <v>27000</v>
       </c>
       <c r="AI45" s="13" t="n">
-        <v>27000</v>
+        <v>115491</v>
       </c>
       <c r="AJ45" s="13" t="n">
-        <v>115491</v>
+        <v>105237</v>
       </c>
       <c r="AK45" s="13" t="n">
-        <v>105237</v>
+        <v>134001</v>
       </c>
       <c r="AL45" s="13" t="n">
-        <v>134001</v>
+        <v>149635</v>
       </c>
       <c r="AM45" s="13" t="n">
-        <v>149635</v>
+        <v>103486</v>
       </c>
       <c r="AN45" s="13" t="n">
-        <v>103486</v>
+        <v>74404</v>
       </c>
       <c r="AO45" s="13" t="n">
-        <v>74404</v>
-      </c>
-      <c r="AP45" s="13" t="n">
         <v>73341</v>
+      </c>
+      <c r="AP45" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ45" s="13" t="s">
         <v>57</v>
@@ -8439,44 +8439,44 @@
       <c r="AO46" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP46" s="16" t="s">
-        <v>57</v>
+      <c r="AP46" s="16" t="n">
+        <v>94043</v>
       </c>
       <c r="AQ46" s="16" t="n">
-        <v>94043</v>
+        <v>64358</v>
       </c>
       <c r="AR46" s="16" t="n">
-        <v>64358</v>
+        <v>42874</v>
       </c>
       <c r="AS46" s="16" t="n">
-        <v>42874</v>
+        <v>43965</v>
       </c>
       <c r="AT46" s="16" t="n">
-        <v>43965</v>
+        <v>33802</v>
       </c>
       <c r="AU46" s="16" t="n">
-        <v>33802</v>
+        <v>65313</v>
       </c>
       <c r="AV46" s="16" t="n">
-        <v>65313</v>
+        <v>57011</v>
       </c>
       <c r="AW46" s="16" t="n">
-        <v>57011</v>
+        <v>80029</v>
       </c>
       <c r="AX46" s="16" t="n">
-        <v>80029</v>
+        <v>96046</v>
       </c>
       <c r="AY46" s="16" t="n">
-        <v>96046</v>
+        <v>85409</v>
       </c>
       <c r="AZ46" s="16" t="n">
-        <v>85409</v>
+        <v>98823</v>
       </c>
       <c r="BA46" s="16" t="n">
-        <v>98823</v>
+        <v>103009</v>
       </c>
       <c r="BB46" s="16" t="n">
-        <v>103009</v>
+        <v>56306</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8598,44 +8598,44 @@
       <c r="AO47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP47" s="13" t="s">
-        <v>57</v>
+      <c r="AP47" s="13" t="n">
+        <v>17836</v>
       </c>
       <c r="AQ47" s="13" t="n">
-        <v>17836</v>
+        <v>20046</v>
       </c>
       <c r="AR47" s="13" t="n">
-        <v>20046</v>
+        <v>16474</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>16474</v>
+        <v>12446</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>12446</v>
+        <v>10273</v>
       </c>
       <c r="AU47" s="13" t="n">
-        <v>10273</v>
+        <v>31767</v>
       </c>
       <c r="AV47" s="13" t="n">
-        <v>31767</v>
+        <v>37005</v>
       </c>
       <c r="AW47" s="13" t="n">
-        <v>37005</v>
+        <v>45857</v>
       </c>
       <c r="AX47" s="13" t="n">
-        <v>45857</v>
+        <v>44609</v>
       </c>
       <c r="AY47" s="13" t="n">
-        <v>44609</v>
+        <v>39311</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>39311</v>
+        <v>34069</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>34069</v>
+        <v>27927</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>27927</v>
+        <v>15182</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8757,8 +8757,8 @@
       <c r="AO48" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP48" s="16" t="s">
-        <v>57</v>
+      <c r="AP48" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ48" s="16" t="n">
         <v>0</v>
@@ -8916,44 +8916,44 @@
       <c r="AO49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP49" s="13" t="s">
-        <v>57</v>
+      <c r="AP49" s="13" t="n">
+        <v>60360</v>
       </c>
       <c r="AQ49" s="13" t="n">
-        <v>60360</v>
+        <v>48384</v>
       </c>
       <c r="AR49" s="13" t="n">
-        <v>48384</v>
+        <v>40882</v>
       </c>
       <c r="AS49" s="13" t="n">
-        <v>40882</v>
+        <v>36245</v>
       </c>
       <c r="AT49" s="13" t="n">
-        <v>36245</v>
+        <v>61048</v>
       </c>
       <c r="AU49" s="13" t="n">
-        <v>61048</v>
+        <v>85770</v>
       </c>
       <c r="AV49" s="13" t="n">
-        <v>85770</v>
+        <v>55156</v>
       </c>
       <c r="AW49" s="13" t="n">
-        <v>55156</v>
+        <v>62557</v>
       </c>
       <c r="AX49" s="13" t="n">
-        <v>62557</v>
+        <v>33174</v>
       </c>
       <c r="AY49" s="13" t="n">
-        <v>33174</v>
+        <v>37095</v>
       </c>
       <c r="AZ49" s="13" t="n">
-        <v>37095</v>
+        <v>21255</v>
       </c>
       <c r="BA49" s="13" t="n">
-        <v>21255</v>
+        <v>11330</v>
       </c>
       <c r="BB49" s="13" t="n">
-        <v>11330</v>
+        <v>38310</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9067,8 +9067,8 @@
       <c r="T51" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U51" s="20" t="s">
-        <v>57</v>
+      <c r="U51" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V51" s="20" t="n">
         <v>0</v>
@@ -9281,8 +9281,8 @@
       <c r="T53" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U53" s="20" t="s">
-        <v>57</v>
+      <c r="U53" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V53" s="20" t="n">
         <v>0</v>
@@ -9391,154 +9391,154 @@
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22" t="n">
-        <v>135558</v>
+        <v>237140</v>
       </c>
       <c r="F54" s="22" t="n">
-        <v>237140</v>
+        <v>239098</v>
       </c>
       <c r="G54" s="22" t="n">
-        <v>239098</v>
+        <v>268734</v>
       </c>
       <c r="H54" s="22" t="n">
-        <v>268734</v>
+        <v>278983</v>
       </c>
       <c r="I54" s="22" t="n">
-        <v>278983</v>
+        <v>164248</v>
       </c>
       <c r="J54" s="22" t="n">
-        <v>164248</v>
+        <v>212523</v>
       </c>
       <c r="K54" s="22" t="n">
-        <v>212523</v>
+        <v>150985</v>
       </c>
       <c r="L54" s="22" t="n">
-        <v>150985</v>
+        <v>220266</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>220266</v>
+        <v>207335</v>
       </c>
       <c r="N54" s="22" t="n">
-        <v>207335</v>
+        <v>275859</v>
       </c>
       <c r="O54" s="22" t="n">
-        <v>275859</v>
+        <v>215802</v>
       </c>
       <c r="P54" s="22" t="n">
-        <v>215802</v>
+        <v>217537</v>
       </c>
       <c r="Q54" s="22" t="n">
-        <v>217537</v>
+        <v>236302</v>
       </c>
       <c r="R54" s="22" t="n">
-        <v>236302</v>
+        <v>145714</v>
       </c>
       <c r="S54" s="22" t="n">
-        <v>145714</v>
+        <v>155551</v>
       </c>
       <c r="T54" s="22" t="n">
-        <v>155551</v>
+        <v>172636</v>
       </c>
       <c r="U54" s="22" t="n">
-        <v>172636</v>
+        <v>222106</v>
       </c>
       <c r="V54" s="22" t="n">
-        <v>222106</v>
+        <v>250261</v>
       </c>
       <c r="W54" s="22" t="n">
-        <v>250261</v>
+        <v>235441</v>
       </c>
       <c r="X54" s="22" t="n">
-        <v>235441</v>
+        <v>184958</v>
       </c>
       <c r="Y54" s="22" t="n">
-        <v>184958</v>
+        <v>231642</v>
       </c>
       <c r="Z54" s="22" t="n">
-        <v>231642</v>
+        <v>206984</v>
       </c>
       <c r="AA54" s="22" t="n">
-        <v>206984</v>
+        <v>197306</v>
       </c>
       <c r="AB54" s="22" t="n">
-        <v>197306</v>
+        <v>196162</v>
       </c>
       <c r="AC54" s="22" t="n">
-        <v>196162</v>
+        <v>273249</v>
       </c>
       <c r="AD54" s="22" t="n">
-        <v>273249</v>
+        <v>168217</v>
       </c>
       <c r="AE54" s="22" t="n">
-        <v>168217</v>
+        <v>231790</v>
       </c>
       <c r="AF54" s="22" t="n">
-        <v>231790</v>
+        <v>181091</v>
       </c>
       <c r="AG54" s="22" t="n">
-        <v>181091</v>
+        <v>86226</v>
       </c>
       <c r="AH54" s="22" t="n">
-        <v>86226</v>
+        <v>123042</v>
       </c>
       <c r="AI54" s="22" t="n">
-        <v>123042</v>
+        <v>252853</v>
       </c>
       <c r="AJ54" s="22" t="n">
-        <v>252853</v>
+        <v>234264</v>
       </c>
       <c r="AK54" s="22" t="n">
-        <v>234264</v>
+        <v>280477</v>
       </c>
       <c r="AL54" s="22" t="n">
-        <v>280477</v>
+        <v>283405</v>
       </c>
       <c r="AM54" s="22" t="n">
-        <v>283405</v>
+        <v>218479</v>
       </c>
       <c r="AN54" s="22" t="n">
-        <v>218479</v>
+        <v>195329</v>
       </c>
       <c r="AO54" s="22" t="n">
-        <v>195329</v>
+        <v>185400</v>
       </c>
       <c r="AP54" s="22" t="n">
-        <v>185400</v>
+        <v>225211</v>
       </c>
       <c r="AQ54" s="22" t="n">
-        <v>225211</v>
+        <v>195919</v>
       </c>
       <c r="AR54" s="22" t="n">
-        <v>195919</v>
+        <v>156571</v>
       </c>
       <c r="AS54" s="22" t="n">
-        <v>156571</v>
+        <v>160749</v>
       </c>
       <c r="AT54" s="22" t="n">
-        <v>160749</v>
+        <v>147305</v>
       </c>
       <c r="AU54" s="22" t="n">
-        <v>147305</v>
+        <v>245900</v>
       </c>
       <c r="AV54" s="22" t="n">
-        <v>245900</v>
+        <v>216357</v>
       </c>
       <c r="AW54" s="22" t="n">
-        <v>216357</v>
+        <v>272586</v>
       </c>
       <c r="AX54" s="22" t="n">
-        <v>272586</v>
+        <v>256465</v>
       </c>
       <c r="AY54" s="22" t="n">
-        <v>256465</v>
+        <v>220616</v>
       </c>
       <c r="AZ54" s="22" t="n">
-        <v>220616</v>
+        <v>234519</v>
       </c>
       <c r="BA54" s="22" t="n">
-        <v>234519</v>
+        <v>212994</v>
       </c>
       <c r="BB54" s="22" t="n">
-        <v>212994</v>
+        <v>181557</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9995,8 +9995,8 @@
       <c r="H61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I61" s="13" t="s">
-        <v>57</v>
+      <c r="I61" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="J61" s="13" t="n">
         <v>0</v>
@@ -10154,8 +10154,8 @@
       <c r="H62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I62" s="16" t="s">
-        <v>57</v>
+      <c r="I62" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="J62" s="16" t="n">
         <v>0</v>
@@ -10302,13 +10302,13 @@
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13" t="n">
-        <v>0</v>
+        <v>111865</v>
       </c>
       <c r="F63" s="13" t="n">
-        <v>111865</v>
+        <v>98605</v>
       </c>
       <c r="G63" s="13" t="n">
-        <v>98605</v>
+        <v>0</v>
       </c>
       <c r="H63" s="13" t="n">
         <v>0</v>
@@ -10340,8 +10340,8 @@
       <c r="Q63" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R63" s="13" t="n">
-        <v>0</v>
+      <c r="R63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S63" s="13" t="s">
         <v>57</v>
@@ -10461,13 +10461,13 @@
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16" t="n">
-        <v>0</v>
+        <v>74725</v>
       </c>
       <c r="F64" s="16" t="n">
-        <v>74725</v>
+        <v>82350</v>
       </c>
       <c r="G64" s="16" t="n">
-        <v>82350</v>
+        <v>0</v>
       </c>
       <c r="H64" s="16" t="n">
         <v>0</v>
@@ -10499,8 +10499,8 @@
       <c r="Q64" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R64" s="16" t="n">
-        <v>0</v>
+      <c r="R64" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S64" s="16" t="s">
         <v>57</v>
@@ -10620,19 +10620,19 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13" t="n">
-        <v>170806</v>
+        <v>191210</v>
       </c>
       <c r="F65" s="13" t="n">
-        <v>191210</v>
+        <v>85527</v>
       </c>
       <c r="G65" s="13" t="n">
-        <v>85527</v>
+        <v>165648</v>
       </c>
       <c r="H65" s="13" t="n">
-        <v>165648</v>
+        <v>125092</v>
       </c>
       <c r="I65" s="13" t="n">
-        <v>125092</v>
+        <v>0</v>
       </c>
       <c r="J65" s="13" t="n">
         <v>0</v>
@@ -10658,8 +10658,8 @@
       <c r="Q65" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R65" s="13" t="n">
-        <v>0</v>
+      <c r="R65" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S65" s="13" t="s">
         <v>57</v>
@@ -10889,44 +10889,44 @@
       <c r="AO66" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP66" s="16" t="s">
-        <v>57</v>
+      <c r="AP66" s="16" t="n">
+        <v>15951</v>
       </c>
       <c r="AQ66" s="16" t="n">
-        <v>15951</v>
+        <v>27656</v>
       </c>
       <c r="AR66" s="16" t="n">
-        <v>27656</v>
+        <v>35488</v>
       </c>
       <c r="AS66" s="16" t="n">
-        <v>35488</v>
+        <v>40761</v>
       </c>
       <c r="AT66" s="16" t="n">
-        <v>40761</v>
+        <v>16790</v>
       </c>
       <c r="AU66" s="16" t="n">
-        <v>16790</v>
+        <v>37978</v>
       </c>
       <c r="AV66" s="16" t="n">
-        <v>37978</v>
+        <v>82648</v>
       </c>
       <c r="AW66" s="16" t="n">
-        <v>82648</v>
+        <v>57120</v>
       </c>
       <c r="AX66" s="16" t="n">
-        <v>57120</v>
+        <v>75996</v>
       </c>
       <c r="AY66" s="16" t="n">
-        <v>75996</v>
+        <v>42711</v>
       </c>
       <c r="AZ66" s="16" t="n">
-        <v>42711</v>
+        <v>61376</v>
       </c>
       <c r="BA66" s="16" t="n">
-        <v>61376</v>
+        <v>52164</v>
       </c>
       <c r="BB66" s="16" t="n">
-        <v>52164</v>
+        <v>77688</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11048,44 +11048,44 @@
       <c r="AO67" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP67" s="13" t="s">
-        <v>57</v>
+      <c r="AP67" s="13" t="n">
+        <v>316878</v>
       </c>
       <c r="AQ67" s="13" t="n">
-        <v>316878</v>
+        <v>368851</v>
       </c>
       <c r="AR67" s="13" t="n">
-        <v>368851</v>
+        <v>333513</v>
       </c>
       <c r="AS67" s="13" t="n">
-        <v>333513</v>
+        <v>459273</v>
       </c>
       <c r="AT67" s="13" t="n">
-        <v>459273</v>
+        <v>280899</v>
       </c>
       <c r="AU67" s="13" t="n">
-        <v>280899</v>
+        <v>398610</v>
       </c>
       <c r="AV67" s="13" t="n">
-        <v>398610</v>
+        <v>377322</v>
       </c>
       <c r="AW67" s="13" t="n">
-        <v>377322</v>
+        <v>559493</v>
       </c>
       <c r="AX67" s="13" t="n">
-        <v>559493</v>
+        <v>554508</v>
       </c>
       <c r="AY67" s="13" t="n">
-        <v>554508</v>
+        <v>425655</v>
       </c>
       <c r="AZ67" s="13" t="n">
-        <v>425655</v>
+        <v>543198</v>
       </c>
       <c r="BA67" s="13" t="n">
-        <v>543198</v>
+        <v>491494</v>
       </c>
       <c r="BB67" s="13" t="n">
-        <v>491494</v>
+        <v>520263</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11097,19 +11097,19 @@
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="16" t="n">
-        <v>20956</v>
+        <v>24328</v>
       </c>
       <c r="F68" s="16" t="n">
-        <v>24328</v>
+        <v>132502</v>
       </c>
       <c r="G68" s="16" t="n">
-        <v>132502</v>
+        <v>248582</v>
       </c>
       <c r="H68" s="16" t="n">
-        <v>248582</v>
+        <v>250065</v>
       </c>
       <c r="I68" s="16" t="n">
-        <v>250065</v>
+        <v>0</v>
       </c>
       <c r="J68" s="16" t="n">
         <v>0</v>
@@ -11135,8 +11135,8 @@
       <c r="Q68" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R68" s="16" t="n">
-        <v>0</v>
+      <c r="R68" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S68" s="16" t="s">
         <v>57</v>
@@ -11267,71 +11267,71 @@
       <c r="H69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I69" s="13" t="s">
-        <v>57</v>
+      <c r="I69" s="13" t="n">
+        <v>321570</v>
       </c>
       <c r="J69" s="13" t="n">
-        <v>321570</v>
+        <v>387589</v>
       </c>
       <c r="K69" s="13" t="n">
-        <v>387589</v>
+        <v>271567</v>
       </c>
       <c r="L69" s="13" t="n">
-        <v>271567</v>
+        <v>427448</v>
       </c>
       <c r="M69" s="13" t="n">
-        <v>427448</v>
+        <v>415325</v>
       </c>
       <c r="N69" s="13" t="n">
-        <v>415325</v>
+        <v>563781</v>
       </c>
       <c r="O69" s="13" t="n">
-        <v>563781</v>
+        <v>456861</v>
       </c>
       <c r="P69" s="13" t="n">
-        <v>456861</v>
+        <v>512716</v>
       </c>
       <c r="Q69" s="13" t="n">
-        <v>512716</v>
+        <v>629003</v>
       </c>
       <c r="R69" s="13" t="n">
-        <v>629003</v>
+        <v>294499</v>
       </c>
       <c r="S69" s="13" t="n">
-        <v>294499</v>
+        <v>340540</v>
       </c>
       <c r="T69" s="13" t="n">
-        <v>340540</v>
+        <v>384269</v>
       </c>
       <c r="U69" s="13" t="n">
-        <v>384269</v>
+        <v>596173</v>
       </c>
       <c r="V69" s="13" t="n">
-        <v>596173</v>
+        <v>937181</v>
       </c>
       <c r="W69" s="13" t="n">
-        <v>937181</v>
+        <v>812103</v>
       </c>
       <c r="X69" s="13" t="n">
-        <v>812103</v>
+        <v>573522</v>
       </c>
       <c r="Y69" s="13" t="n">
-        <v>573522</v>
+        <v>824269</v>
       </c>
       <c r="Z69" s="13" t="n">
-        <v>824269</v>
+        <v>756140</v>
       </c>
       <c r="AA69" s="13" t="n">
-        <v>756140</v>
+        <v>739085</v>
       </c>
       <c r="AB69" s="13" t="n">
-        <v>739085</v>
+        <v>742679</v>
       </c>
       <c r="AC69" s="13" t="n">
-        <v>742679</v>
-      </c>
-      <c r="AD69" s="13" t="n">
         <v>960153</v>
+      </c>
+      <c r="AD69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE69" s="13" t="s">
         <v>57</v>
@@ -11489,44 +11489,44 @@
       <c r="AC70" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD70" s="16" t="s">
-        <v>57</v>
+      <c r="AD70" s="16" t="n">
+        <v>236434</v>
       </c>
       <c r="AE70" s="16" t="n">
-        <v>236434</v>
+        <v>481290</v>
       </c>
       <c r="AF70" s="16" t="n">
-        <v>481290</v>
+        <v>471921</v>
       </c>
       <c r="AG70" s="16" t="n">
-        <v>471921</v>
+        <v>221291</v>
       </c>
       <c r="AH70" s="16" t="n">
-        <v>221291</v>
+        <v>448266</v>
       </c>
       <c r="AI70" s="16" t="n">
-        <v>448266</v>
+        <v>637426</v>
       </c>
       <c r="AJ70" s="16" t="n">
-        <v>637426</v>
+        <v>549913</v>
       </c>
       <c r="AK70" s="16" t="n">
-        <v>549913</v>
+        <v>619945</v>
       </c>
       <c r="AL70" s="16" t="n">
-        <v>619945</v>
+        <v>626143</v>
       </c>
       <c r="AM70" s="16" t="n">
-        <v>626143</v>
+        <v>551198</v>
       </c>
       <c r="AN70" s="16" t="n">
-        <v>551198</v>
+        <v>557384</v>
       </c>
       <c r="AO70" s="16" t="n">
-        <v>557384</v>
-      </c>
-      <c r="AP70" s="16" t="n">
         <v>554624</v>
+      </c>
+      <c r="AP70" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ70" s="16" t="s">
         <v>57</v>
@@ -11648,44 +11648,44 @@
       <c r="AC71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD71" s="13" t="s">
-        <v>57</v>
+      <c r="AD71" s="13" t="n">
+        <v>410543</v>
       </c>
       <c r="AE71" s="13" t="n">
-        <v>410543</v>
+        <v>486464</v>
       </c>
       <c r="AF71" s="13" t="n">
-        <v>486464</v>
+        <v>294131</v>
       </c>
       <c r="AG71" s="13" t="n">
-        <v>294131</v>
+        <v>195680</v>
       </c>
       <c r="AH71" s="13" t="n">
-        <v>195680</v>
+        <v>202745</v>
       </c>
       <c r="AI71" s="13" t="n">
-        <v>202745</v>
+        <v>813197</v>
       </c>
       <c r="AJ71" s="13" t="n">
-        <v>813197</v>
+        <v>759445</v>
       </c>
       <c r="AK71" s="13" t="n">
-        <v>759445</v>
+        <v>924241</v>
       </c>
       <c r="AL71" s="13" t="n">
-        <v>924241</v>
+        <v>1051376</v>
       </c>
       <c r="AM71" s="13" t="n">
-        <v>1051376</v>
+        <v>726992</v>
       </c>
       <c r="AN71" s="13" t="n">
-        <v>726992</v>
+        <v>510285</v>
       </c>
       <c r="AO71" s="13" t="n">
-        <v>510285</v>
-      </c>
-      <c r="AP71" s="13" t="n">
         <v>493183</v>
+      </c>
+      <c r="AP71" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ71" s="13" t="s">
         <v>57</v>
@@ -11843,44 +11843,44 @@
       <c r="AO72" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP72" s="16" t="s">
-        <v>57</v>
+      <c r="AP72" s="16" t="n">
+        <v>554523</v>
       </c>
       <c r="AQ72" s="16" t="n">
-        <v>554523</v>
+        <v>364059</v>
       </c>
       <c r="AR72" s="16" t="n">
-        <v>364059</v>
+        <v>208862</v>
       </c>
       <c r="AS72" s="16" t="n">
-        <v>208862</v>
+        <v>328561</v>
       </c>
       <c r="AT72" s="16" t="n">
-        <v>328561</v>
+        <v>237733</v>
       </c>
       <c r="AU72" s="16" t="n">
-        <v>237733</v>
+        <v>495981</v>
       </c>
       <c r="AV72" s="16" t="n">
-        <v>495981</v>
+        <v>459676</v>
       </c>
       <c r="AW72" s="16" t="n">
-        <v>459676</v>
+        <v>664679</v>
       </c>
       <c r="AX72" s="16" t="n">
-        <v>664679</v>
+        <v>805222</v>
       </c>
       <c r="AY72" s="16" t="n">
-        <v>805222</v>
+        <v>693058</v>
       </c>
       <c r="AZ72" s="16" t="n">
-        <v>693058</v>
+        <v>1035845</v>
       </c>
       <c r="BA72" s="16" t="n">
-        <v>1035845</v>
+        <v>1069729</v>
       </c>
       <c r="BB72" s="16" t="n">
-        <v>1069729</v>
+        <v>532261</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12002,44 +12002,44 @@
       <c r="AO73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP73" s="13" t="s">
-        <v>57</v>
+      <c r="AP73" s="13" t="n">
+        <v>112295</v>
       </c>
       <c r="AQ73" s="13" t="n">
-        <v>112295</v>
+        <v>117587</v>
       </c>
       <c r="AR73" s="13" t="n">
-        <v>117587</v>
+        <v>81680</v>
       </c>
       <c r="AS73" s="13" t="n">
-        <v>81680</v>
+        <v>77458</v>
       </c>
       <c r="AT73" s="13" t="n">
-        <v>77458</v>
+        <v>65418</v>
       </c>
       <c r="AU73" s="13" t="n">
-        <v>65418</v>
+        <v>229492</v>
       </c>
       <c r="AV73" s="13" t="n">
-        <v>229492</v>
+        <v>253596</v>
       </c>
       <c r="AW73" s="13" t="n">
-        <v>253596</v>
+        <v>413441</v>
       </c>
       <c r="AX73" s="13" t="n">
-        <v>413441</v>
+        <v>403446</v>
       </c>
       <c r="AY73" s="13" t="n">
-        <v>403446</v>
+        <v>348131</v>
       </c>
       <c r="AZ73" s="13" t="n">
-        <v>348131</v>
+        <v>405769</v>
       </c>
       <c r="BA73" s="13" t="n">
-        <v>405769</v>
+        <v>296374</v>
       </c>
       <c r="BB73" s="13" t="n">
-        <v>296374</v>
+        <v>155729</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12161,8 +12161,8 @@
       <c r="AO74" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP74" s="16" t="s">
-        <v>57</v>
+      <c r="AP74" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ74" s="16" t="n">
         <v>0</v>
@@ -12320,44 +12320,44 @@
       <c r="AO75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP75" s="13" t="s">
-        <v>57</v>
+      <c r="AP75" s="13" t="n">
+        <v>393945</v>
       </c>
       <c r="AQ75" s="13" t="n">
-        <v>393945</v>
+        <v>333814</v>
       </c>
       <c r="AR75" s="13" t="n">
-        <v>333814</v>
+        <v>279551</v>
       </c>
       <c r="AS75" s="13" t="n">
-        <v>279551</v>
+        <v>300194</v>
       </c>
       <c r="AT75" s="13" t="n">
-        <v>300194</v>
+        <v>523288</v>
       </c>
       <c r="AU75" s="13" t="n">
-        <v>523288</v>
+        <v>747034</v>
       </c>
       <c r="AV75" s="13" t="n">
-        <v>747034</v>
+        <v>490493</v>
       </c>
       <c r="AW75" s="13" t="n">
-        <v>490493</v>
+        <v>566384</v>
       </c>
       <c r="AX75" s="13" t="n">
-        <v>566384</v>
+        <v>301060</v>
       </c>
       <c r="AY75" s="13" t="n">
-        <v>301060</v>
+        <v>351386</v>
       </c>
       <c r="AZ75" s="13" t="n">
-        <v>351386</v>
+        <v>202888</v>
       </c>
       <c r="BA75" s="13" t="n">
-        <v>202888</v>
+        <v>108774</v>
       </c>
       <c r="BB75" s="13" t="n">
-        <v>108774</v>
+        <v>438216</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12473,8 +12473,8 @@
       <c r="T77" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U77" s="20" t="s">
-        <v>57</v>
+      <c r="U77" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V77" s="23" t="n">
         <v>0</v>
@@ -12689,8 +12689,8 @@
       <c r="T79" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U79" s="20" t="s">
-        <v>57</v>
+      <c r="U79" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V79" s="23" t="n">
         <v>0</v>
@@ -12905,8 +12905,8 @@
       <c r="T81" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U81" s="13" t="s">
-        <v>57</v>
+      <c r="U81" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V81" s="13" t="n">
         <v>0</v>
@@ -13015,154 +13015,154 @@
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22" t="n">
-        <v>191762</v>
+        <v>402128</v>
       </c>
       <c r="F82" s="22" t="n">
-        <v>402128</v>
+        <v>398984</v>
       </c>
       <c r="G82" s="22" t="n">
-        <v>398984</v>
+        <v>414230</v>
       </c>
       <c r="H82" s="22" t="n">
-        <v>414230</v>
+        <v>375157</v>
       </c>
       <c r="I82" s="22" t="n">
-        <v>375157</v>
+        <v>321570</v>
       </c>
       <c r="J82" s="22" t="n">
-        <v>321570</v>
+        <v>387589</v>
       </c>
       <c r="K82" s="22" t="n">
-        <v>387589</v>
+        <v>271567</v>
       </c>
       <c r="L82" s="22" t="n">
-        <v>271567</v>
+        <v>427448</v>
       </c>
       <c r="M82" s="22" t="n">
-        <v>427448</v>
+        <v>415325</v>
       </c>
       <c r="N82" s="22" t="n">
-        <v>415325</v>
+        <v>563781</v>
       </c>
       <c r="O82" s="22" t="n">
-        <v>563781</v>
+        <v>456861</v>
       </c>
       <c r="P82" s="22" t="n">
-        <v>456861</v>
+        <v>512716</v>
       </c>
       <c r="Q82" s="22" t="n">
-        <v>512716</v>
+        <v>629003</v>
       </c>
       <c r="R82" s="22" t="n">
-        <v>629003</v>
+        <v>294499</v>
       </c>
       <c r="S82" s="22" t="n">
-        <v>294499</v>
+        <v>340540</v>
       </c>
       <c r="T82" s="22" t="n">
-        <v>340540</v>
+        <v>384269</v>
       </c>
       <c r="U82" s="22" t="n">
-        <v>384269</v>
+        <v>596173</v>
       </c>
       <c r="V82" s="22" t="n">
-        <v>596173</v>
+        <v>937181</v>
       </c>
       <c r="W82" s="22" t="n">
-        <v>937181</v>
+        <v>812103</v>
       </c>
       <c r="X82" s="22" t="n">
-        <v>812103</v>
+        <v>573522</v>
       </c>
       <c r="Y82" s="22" t="n">
-        <v>573522</v>
+        <v>824269</v>
       </c>
       <c r="Z82" s="22" t="n">
-        <v>824269</v>
+        <v>756140</v>
       </c>
       <c r="AA82" s="22" t="n">
-        <v>756140</v>
+        <v>739085</v>
       </c>
       <c r="AB82" s="22" t="n">
-        <v>739085</v>
+        <v>742679</v>
       </c>
       <c r="AC82" s="22" t="n">
-        <v>742679</v>
+        <v>960153</v>
       </c>
       <c r="AD82" s="22" t="n">
-        <v>960153</v>
+        <v>646977</v>
       </c>
       <c r="AE82" s="22" t="n">
-        <v>646977</v>
+        <v>967754</v>
       </c>
       <c r="AF82" s="22" t="n">
-        <v>967754</v>
+        <v>766052</v>
       </c>
       <c r="AG82" s="22" t="n">
-        <v>766052</v>
+        <v>416971</v>
       </c>
       <c r="AH82" s="22" t="n">
-        <v>416971</v>
+        <v>651011</v>
       </c>
       <c r="AI82" s="22" t="n">
-        <v>651011</v>
+        <v>1450623</v>
       </c>
       <c r="AJ82" s="22" t="n">
-        <v>1450623</v>
+        <v>1309358</v>
       </c>
       <c r="AK82" s="22" t="n">
-        <v>1309358</v>
+        <v>1544186</v>
       </c>
       <c r="AL82" s="22" t="n">
-        <v>1544186</v>
+        <v>1677519</v>
       </c>
       <c r="AM82" s="22" t="n">
-        <v>1677519</v>
+        <v>1278190</v>
       </c>
       <c r="AN82" s="22" t="n">
-        <v>1278190</v>
+        <v>1067669</v>
       </c>
       <c r="AO82" s="22" t="n">
-        <v>1067669</v>
+        <v>1047807</v>
       </c>
       <c r="AP82" s="22" t="n">
-        <v>1047807</v>
+        <v>1393592</v>
       </c>
       <c r="AQ82" s="22" t="n">
-        <v>1393592</v>
+        <v>1211967</v>
       </c>
       <c r="AR82" s="22" t="n">
-        <v>1211967</v>
+        <v>939094</v>
       </c>
       <c r="AS82" s="22" t="n">
-        <v>939094</v>
+        <v>1206247</v>
       </c>
       <c r="AT82" s="22" t="n">
-        <v>1206247</v>
+        <v>1124128</v>
       </c>
       <c r="AU82" s="22" t="n">
-        <v>1124128</v>
+        <v>1909095</v>
       </c>
       <c r="AV82" s="22" t="n">
-        <v>1909095</v>
+        <v>1663735</v>
       </c>
       <c r="AW82" s="22" t="n">
-        <v>1663735</v>
+        <v>2261117</v>
       </c>
       <c r="AX82" s="22" t="n">
-        <v>2261117</v>
+        <v>2140232</v>
       </c>
       <c r="AY82" s="22" t="n">
-        <v>2140232</v>
+        <v>1860941</v>
       </c>
       <c r="AZ82" s="22" t="n">
-        <v>1860941</v>
+        <v>2249076</v>
       </c>
       <c r="BA82" s="22" t="n">
-        <v>2249076</v>
+        <v>2018535</v>
       </c>
       <c r="BB82" s="22" t="n">
-        <v>2018535</v>
+        <v>1724157</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13619,8 +13619,8 @@
       <c r="H89" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I89" s="13" t="s">
-        <v>57</v>
+      <c r="I89" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="J89" s="13" t="n">
         <v>0</v>
@@ -13649,8 +13649,8 @@
       <c r="R89" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="S89" s="13" t="n">
-        <v>0</v>
+      <c r="S89" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="T89" s="13" t="s">
         <v>57</v>
@@ -13778,8 +13778,8 @@
       <c r="H90" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I90" s="16" t="s">
-        <v>57</v>
+      <c r="I90" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="J90" s="16" t="n">
         <v>0</v>
@@ -13808,8 +13808,8 @@
       <c r="R90" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="S90" s="16" t="n">
-        <v>0</v>
+      <c r="S90" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="T90" s="16" t="s">
         <v>57</v>
@@ -13926,13 +13926,13 @@
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13" t="n">
-        <v>0</v>
+        <v>1813429</v>
       </c>
       <c r="F91" s="13" t="n">
-        <v>1813429</v>
+        <v>1850000</v>
       </c>
       <c r="G91" s="13" t="n">
-        <v>1850000</v>
+        <v>0</v>
       </c>
       <c r="H91" s="13" t="n">
         <v>0</v>
@@ -13964,8 +13964,8 @@
       <c r="Q91" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R91" s="13" t="n">
-        <v>0</v>
+      <c r="R91" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S91" s="13" t="s">
         <v>57</v>
@@ -14085,13 +14085,13 @@
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16" t="n">
-        <v>0</v>
+        <v>2135000</v>
       </c>
       <c r="F92" s="16" t="n">
-        <v>2135000</v>
+        <v>3050000</v>
       </c>
       <c r="G92" s="16" t="n">
-        <v>3050000</v>
+        <v>0</v>
       </c>
       <c r="H92" s="16" t="n">
         <v>0</v>
@@ -14123,8 +14123,8 @@
       <c r="Q92" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R92" s="16" t="n">
-        <v>0</v>
+      <c r="R92" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S92" s="16" t="s">
         <v>57</v>
@@ -14244,19 +14244,19 @@
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13" t="n">
-        <v>1548390</v>
+        <v>1540327</v>
       </c>
       <c r="F93" s="13" t="n">
-        <v>1540327</v>
+        <v>1590017</v>
       </c>
       <c r="G93" s="13" t="n">
-        <v>1590017</v>
+        <v>1602787</v>
       </c>
       <c r="H93" s="13" t="n">
-        <v>1602787</v>
+        <v>1501128</v>
       </c>
       <c r="I93" s="13" t="n">
-        <v>1501128</v>
+        <v>0</v>
       </c>
       <c r="J93" s="13" t="n">
         <v>0</v>
@@ -14282,8 +14282,8 @@
       <c r="Q93" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R93" s="13" t="n">
-        <v>0</v>
+      <c r="R93" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S93" s="13" t="s">
         <v>57</v>
@@ -14513,44 +14513,44 @@
       <c r="AO94" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP94" s="16" t="s">
-        <v>57</v>
+      <c r="AP94" s="16" t="n">
+        <v>5731585</v>
       </c>
       <c r="AQ94" s="16" t="n">
-        <v>5731585</v>
+        <v>5623424</v>
       </c>
       <c r="AR94" s="16" t="n">
-        <v>5623424</v>
+        <v>6110193</v>
       </c>
       <c r="AS94" s="16" t="n">
-        <v>6110193</v>
+        <v>7152307</v>
       </c>
       <c r="AT94" s="16" t="n">
-        <v>7152307</v>
+        <v>7159915</v>
       </c>
       <c r="AU94" s="16" t="n">
-        <v>7159915</v>
+        <v>6512003</v>
       </c>
       <c r="AV94" s="16" t="n">
-        <v>6512003</v>
+        <v>5913143</v>
       </c>
       <c r="AW94" s="16" t="n">
-        <v>5913143</v>
+        <v>6709738</v>
       </c>
       <c r="AX94" s="16" t="n">
-        <v>6709738</v>
+        <v>7165378</v>
       </c>
       <c r="AY94" s="16" t="n">
-        <v>7165378</v>
+        <v>7498420</v>
       </c>
       <c r="AZ94" s="16" t="n">
-        <v>7498420</v>
+        <v>7198686</v>
       </c>
       <c r="BA94" s="16" t="n">
-        <v>7198686</v>
+        <v>7363636</v>
       </c>
       <c r="BB94" s="16" t="n">
-        <v>7363636</v>
+        <v>8303549</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14672,44 +14672,44 @@
       <c r="AO95" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP95" s="13" t="s">
-        <v>57</v>
+      <c r="AP95" s="13" t="n">
+        <v>6313694</v>
       </c>
       <c r="AQ95" s="13" t="n">
-        <v>6313694</v>
+        <v>6336231</v>
       </c>
       <c r="AR95" s="13" t="n">
-        <v>6336231</v>
+        <v>6599905</v>
       </c>
       <c r="AS95" s="13" t="n">
-        <v>6599905</v>
+        <v>7360852</v>
       </c>
       <c r="AT95" s="13" t="n">
-        <v>7360852</v>
+        <v>7051209</v>
       </c>
       <c r="AU95" s="13" t="n">
-        <v>7051209</v>
+        <v>6966514</v>
       </c>
       <c r="AV95" s="13" t="n">
-        <v>6966514</v>
+        <v>7091452</v>
       </c>
       <c r="AW95" s="13" t="n">
-        <v>7091452</v>
+        <v>7397765</v>
       </c>
       <c r="AX95" s="13" t="n">
-        <v>7397765</v>
+        <v>7698292</v>
       </c>
       <c r="AY95" s="13" t="n">
-        <v>7698292</v>
+        <v>8015347</v>
       </c>
       <c r="AZ95" s="13" t="n">
-        <v>8015347</v>
+        <v>7560588</v>
       </c>
       <c r="BA95" s="13" t="n">
-        <v>7560588</v>
+        <v>7722550</v>
       </c>
       <c r="BB95" s="13" t="n">
-        <v>7722550</v>
+        <v>8337147</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14721,19 +14721,19 @@
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16" t="n">
-        <v>830072</v>
+        <v>1490960</v>
       </c>
       <c r="F96" s="16" t="n">
-        <v>1490960</v>
+        <v>1261828</v>
       </c>
       <c r="G96" s="16" t="n">
-        <v>1261828</v>
+        <v>1503060</v>
       </c>
       <c r="H96" s="16" t="n">
-        <v>1503060</v>
+        <v>1278118</v>
       </c>
       <c r="I96" s="16" t="n">
-        <v>1278118</v>
+        <v>0</v>
       </c>
       <c r="J96" s="16" t="n">
         <v>0</v>
@@ -14759,8 +14759,8 @@
       <c r="Q96" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R96" s="16" t="n">
-        <v>0</v>
+      <c r="R96" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S96" s="16" t="s">
         <v>57</v>
@@ -14891,71 +14891,71 @@
       <c r="H97" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I97" s="13" t="s">
-        <v>57</v>
+      <c r="I97" s="13" t="n">
+        <v>1957832</v>
       </c>
       <c r="J97" s="13" t="n">
-        <v>1957832</v>
+        <v>1823751</v>
       </c>
       <c r="K97" s="13" t="n">
-        <v>1823751</v>
+        <v>1798636</v>
       </c>
       <c r="L97" s="13" t="n">
-        <v>1798636</v>
+        <v>1940599</v>
       </c>
       <c r="M97" s="13" t="n">
-        <v>1940599</v>
+        <v>2003159</v>
       </c>
       <c r="N97" s="13" t="n">
-        <v>2003159</v>
+        <v>2043729</v>
       </c>
       <c r="O97" s="13" t="n">
-        <v>2043729</v>
+        <v>2117038</v>
       </c>
       <c r="P97" s="13" t="n">
-        <v>2117038</v>
+        <v>2356914</v>
       </c>
       <c r="Q97" s="13" t="n">
-        <v>2356914</v>
+        <v>2661861</v>
       </c>
       <c r="R97" s="13" t="n">
-        <v>2661861</v>
+        <v>2021076</v>
       </c>
       <c r="S97" s="13" t="n">
-        <v>2021076</v>
+        <v>2189250</v>
       </c>
       <c r="T97" s="13" t="n">
-        <v>2189250</v>
+        <v>2225892</v>
       </c>
       <c r="U97" s="13" t="n">
-        <v>2225892</v>
+        <v>2684182</v>
       </c>
       <c r="V97" s="13" t="n">
-        <v>2684182</v>
+        <v>3744814</v>
       </c>
       <c r="W97" s="13" t="n">
-        <v>3744814</v>
+        <v>3449285</v>
       </c>
       <c r="X97" s="13" t="n">
-        <v>3449285</v>
+        <v>3100823</v>
       </c>
       <c r="Y97" s="13" t="n">
-        <v>3100823</v>
+        <v>3558375</v>
       </c>
       <c r="Z97" s="13" t="n">
-        <v>3558375</v>
+        <v>3653133</v>
       </c>
       <c r="AA97" s="13" t="n">
-        <v>3653133</v>
+        <v>3745882</v>
       </c>
       <c r="AB97" s="13" t="n">
-        <v>3745882</v>
+        <v>3786049</v>
       </c>
       <c r="AC97" s="13" t="n">
-        <v>3786049</v>
-      </c>
-      <c r="AD97" s="13" t="n">
         <v>3513839</v>
+      </c>
+      <c r="AD97" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE97" s="13" t="s">
         <v>57</v>
@@ -15113,44 +15113,44 @@
       <c r="AC98" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD98" s="16" t="s">
-        <v>57</v>
+      <c r="AD98" s="16" t="n">
+        <v>2658802</v>
       </c>
       <c r="AE98" s="16" t="n">
-        <v>2658802</v>
+        <v>3695976</v>
       </c>
       <c r="AF98" s="16" t="n">
-        <v>3695976</v>
+        <v>3837942</v>
       </c>
       <c r="AG98" s="16" t="n">
-        <v>3837942</v>
+        <v>3981844</v>
       </c>
       <c r="AH98" s="16" t="n">
-        <v>3981844</v>
+        <v>4667396</v>
       </c>
       <c r="AI98" s="16" t="n">
-        <v>4667396</v>
+        <v>4640483</v>
       </c>
       <c r="AJ98" s="16" t="n">
-        <v>4640483</v>
+        <v>4261999</v>
       </c>
       <c r="AK98" s="16" t="n">
-        <v>4261999</v>
+        <v>4232400</v>
       </c>
       <c r="AL98" s="16" t="n">
-        <v>4232400</v>
+        <v>4680743</v>
       </c>
       <c r="AM98" s="16" t="n">
-        <v>4680743</v>
+        <v>4793318</v>
       </c>
       <c r="AN98" s="16" t="n">
-        <v>4793318</v>
+        <v>4609336</v>
       </c>
       <c r="AO98" s="16" t="n">
-        <v>4609336</v>
-      </c>
-      <c r="AP98" s="16" t="n">
         <v>4949393</v>
+      </c>
+      <c r="AP98" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ98" s="16" t="s">
         <v>57</v>
@@ -15272,44 +15272,44 @@
       <c r="AC99" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD99" s="13" t="s">
-        <v>57</v>
+      <c r="AD99" s="13" t="n">
+        <v>5177609</v>
       </c>
       <c r="AE99" s="13" t="n">
-        <v>5177609</v>
+        <v>4789446</v>
       </c>
       <c r="AF99" s="13" t="n">
-        <v>4789446</v>
+        <v>5059970</v>
       </c>
       <c r="AG99" s="13" t="n">
-        <v>5059970</v>
+        <v>6384131</v>
       </c>
       <c r="AH99" s="13" t="n">
-        <v>6384131</v>
+        <v>7509074</v>
       </c>
       <c r="AI99" s="13" t="n">
-        <v>7509074</v>
+        <v>7041215</v>
       </c>
       <c r="AJ99" s="13" t="n">
-        <v>7041215</v>
+        <v>7216521</v>
       </c>
       <c r="AK99" s="13" t="n">
-        <v>7216521</v>
+        <v>6897269</v>
       </c>
       <c r="AL99" s="13" t="n">
-        <v>6897269</v>
+        <v>7026271</v>
       </c>
       <c r="AM99" s="13" t="n">
-        <v>7026271</v>
+        <v>7025028</v>
       </c>
       <c r="AN99" s="13" t="n">
-        <v>7025028</v>
+        <v>6858301</v>
       </c>
       <c r="AO99" s="13" t="n">
-        <v>6858301</v>
-      </c>
-      <c r="AP99" s="13" t="n">
         <v>6724520</v>
+      </c>
+      <c r="AP99" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ99" s="13" t="s">
         <v>57</v>
@@ -15467,44 +15467,44 @@
       <c r="AO100" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP100" s="16" t="s">
-        <v>57</v>
+      <c r="AP100" s="16" t="n">
+        <v>5896484</v>
       </c>
       <c r="AQ100" s="16" t="n">
-        <v>5896484</v>
+        <v>5656779</v>
       </c>
       <c r="AR100" s="16" t="n">
-        <v>5656779</v>
+        <v>4871531</v>
       </c>
       <c r="AS100" s="16" t="n">
-        <v>4871531</v>
+        <v>7473240</v>
       </c>
       <c r="AT100" s="16" t="n">
-        <v>7473240</v>
+        <v>7033105</v>
       </c>
       <c r="AU100" s="16" t="n">
-        <v>7033105</v>
+        <v>7593909</v>
       </c>
       <c r="AV100" s="16" t="n">
-        <v>7593909</v>
+        <v>8062935</v>
       </c>
       <c r="AW100" s="16" t="n">
-        <v>8062935</v>
+        <v>8305477</v>
       </c>
       <c r="AX100" s="16" t="n">
-        <v>8305477</v>
+        <v>8383712</v>
       </c>
       <c r="AY100" s="16" t="n">
-        <v>8383712</v>
+        <v>8114578</v>
       </c>
       <c r="AZ100" s="16" t="n">
-        <v>8114578</v>
+        <v>10481821</v>
       </c>
       <c r="BA100" s="16" t="n">
-        <v>10481821</v>
+        <v>10384811</v>
       </c>
       <c r="BB100" s="16" t="n">
-        <v>10384811</v>
+        <v>9453007</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15626,44 +15626,44 @@
       <c r="AO101" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP101" s="13" t="s">
-        <v>57</v>
+      <c r="AP101" s="13" t="n">
+        <v>6295974</v>
       </c>
       <c r="AQ101" s="13" t="n">
-        <v>6295974</v>
+        <v>5865859</v>
       </c>
       <c r="AR101" s="13" t="n">
-        <v>5865859</v>
+        <v>4958116</v>
       </c>
       <c r="AS101" s="13" t="n">
-        <v>4958116</v>
+        <v>6223526</v>
       </c>
       <c r="AT101" s="13" t="n">
-        <v>6223526</v>
+        <v>6367955</v>
       </c>
       <c r="AU101" s="13" t="n">
-        <v>6367955</v>
+        <v>7224226</v>
       </c>
       <c r="AV101" s="13" t="n">
-        <v>7224226</v>
+        <v>6853020</v>
       </c>
       <c r="AW101" s="13" t="n">
-        <v>6853020</v>
+        <v>9015875</v>
       </c>
       <c r="AX101" s="13" t="n">
-        <v>9015875</v>
+        <v>9044049</v>
       </c>
       <c r="AY101" s="13" t="n">
-        <v>9044049</v>
+        <v>8855816</v>
       </c>
       <c r="AZ101" s="13" t="n">
-        <v>8855816</v>
+        <v>11910212</v>
       </c>
       <c r="BA101" s="13" t="n">
-        <v>11910212</v>
+        <v>10612454</v>
       </c>
       <c r="BB101" s="13" t="n">
-        <v>10612454</v>
+        <v>10257476</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15785,44 +15785,44 @@
       <c r="AO102" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP102" s="16" t="s">
-        <v>57</v>
+      <c r="AP102" s="16" t="n">
+        <v>6526590</v>
       </c>
       <c r="AQ102" s="16" t="n">
-        <v>6526590</v>
+        <v>6899264</v>
       </c>
       <c r="AR102" s="16" t="n">
-        <v>6899264</v>
+        <v>6837997</v>
       </c>
       <c r="AS102" s="16" t="n">
-        <v>6837997</v>
+        <v>8282356</v>
       </c>
       <c r="AT102" s="16" t="n">
-        <v>8282356</v>
+        <v>8571747</v>
       </c>
       <c r="AU102" s="16" t="n">
-        <v>8571747</v>
+        <v>8709735</v>
       </c>
       <c r="AV102" s="16" t="n">
-        <v>8709735</v>
+        <v>8892831</v>
       </c>
       <c r="AW102" s="16" t="n">
-        <v>8892831</v>
+        <v>9053887</v>
       </c>
       <c r="AX102" s="16" t="n">
-        <v>9053887</v>
+        <v>9075179</v>
       </c>
       <c r="AY102" s="16" t="n">
-        <v>9075179</v>
+        <v>9472597</v>
       </c>
       <c r="AZ102" s="16" t="n">
-        <v>9472597</v>
+        <v>9545425</v>
       </c>
       <c r="BA102" s="16" t="n">
-        <v>9545425</v>
+        <v>9600530</v>
       </c>
       <c r="BB102" s="16" t="n">
-        <v>9600530</v>
+        <v>11438684</v>
       </c>
     </row>
   </sheetData>
